--- a/notebooksStella_pandasExcel/GG兜底LP.xlsx
+++ b/notebooksStella_pandasExcel/GG兜底LP.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jianying_wang\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB2BEBB-FD93-41BC-8487-503CD99F3044}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="主要tab" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="主要tab"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,27 +17,21 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="504">
   <si>
     <t>countrycode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>countryname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>existing country code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    &lt;Match status='yes' country='US' /&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    &lt;Match status='never' country='GB' /&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AD</t>
@@ -61,7 +44,6 @@
   </si>
   <si>
     <t>需求1:以全量国家为基准（248个），找出目前没有配置 yes 的国家代码 (193个)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AE</t>
@@ -74,7 +56,6 @@
   </si>
   <si>
     <t>需求2:将以上国家代码，组织编辑为一条新的 rule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AF</t>
@@ -1550,49 +1531,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Var(--devsite-primary-font-fami"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFff0000"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1604,12 +1569,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1617,39 +1581,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1660,10 +1646,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1690,82 +1676,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1777,161 +1763,188 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:G249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="33.375" customWidth="1"/>
-    <col min="6" max="7" width="22" customWidth="1"/>
+    <col min="1" max="1" style="6" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="33.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="22.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1952,5578 +1965,4833 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="25.5">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="4">
         <f>IF(ISNA(VLOOKUP(A2, D:D, 1, FALSE)), "null",A2)</f>
-        <v>null</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="4">
         <f>"    &lt;Match status='yes' country='"&amp;A2&amp;"' /&gt;"</f>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AD' /&gt;</v>
-      </c>
-      <c r="F2" s="1" t="str">
+      </c>
+      <c r="F2" s="4">
         <f>"    &lt;Match status='never' country='"&amp;A2&amp;"' /&gt;"</f>
-        <v xml:space="preserve">    &lt;Match status='never' country='AD' /&gt;</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      </c>
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="25.5">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C66" si="0">IF(ISNA(VLOOKUP(A3, D:D, 1, FALSE)), "null",A3)</f>
-        <v>AE</v>
+      <c r="C3" s="4">
+        <f>IF(ISNA(VLOOKUP(A3, D:D, 1, FALSE)), "null",A3)</f>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E66" si="1">"    &lt;Match status='yes' country='"&amp;A3&amp;"' /&gt;"</f>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AE' /&gt;</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F66" si="2">"    &lt;Match status='never' country='"&amp;A3&amp;"' /&gt;"</f>
-        <v xml:space="preserve">    &lt;Match status='never' country='AE' /&gt;</v>
+      <c r="E3" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A3&amp;"' /&gt;"</f>
+      </c>
+      <c r="F3" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A3&amp;"' /&gt;"</f>
       </c>
       <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="25.5">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C4" s="4">
+        <f>IF(ISNA(VLOOKUP(A4, D:D, 1, FALSE)), "null",A4)</f>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AF' /&gt;</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='AF' /&gt;</v>
+      <c r="E4" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A4&amp;"' /&gt;"</f>
+      </c>
+      <c r="F4" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A4&amp;"' /&gt;"</f>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="25.5">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C5" s="4">
+        <f>IF(ISNA(VLOOKUP(A5, D:D, 1, FALSE)), "null",A5)</f>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AG' /&gt;</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='AG' /&gt;</v>
+      <c r="E5" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A5&amp;"' /&gt;"</f>
+      </c>
+      <c r="F5" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A5&amp;"' /&gt;"</f>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="25.5">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C6" s="4">
+        <f>IF(ISNA(VLOOKUP(A6, D:D, 1, FALSE)), "null",A6)</f>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AI' /&gt;</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='AI' /&gt;</v>
+      <c r="E6" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A6&amp;"' /&gt;"</f>
+      </c>
+      <c r="F6" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A6&amp;"' /&gt;"</f>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="25.5">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C7" s="4">
+        <f>IF(ISNA(VLOOKUP(A7, D:D, 1, FALSE)), "null",A7)</f>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AL' /&gt;</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='AL' /&gt;</v>
+      <c r="E7" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A7&amp;"' /&gt;"</f>
+      </c>
+      <c r="F7" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A7&amp;"' /&gt;"</f>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="25.5">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C8" s="4">
+        <f>IF(ISNA(VLOOKUP(A8, D:D, 1, FALSE)), "null",A8)</f>
       </c>
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AM' /&gt;</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='AM' /&gt;</v>
+      <c r="E8" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A8&amp;"' /&gt;"</f>
+      </c>
+      <c r="F8" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A8&amp;"' /&gt;"</f>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="25.5">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C9" s="4">
+        <f>IF(ISNA(VLOOKUP(A9, D:D, 1, FALSE)), "null",A9)</f>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AO' /&gt;</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='AO' /&gt;</v>
+      <c r="E9" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A9&amp;"' /&gt;"</f>
+      </c>
+      <c r="F9" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A9&amp;"' /&gt;"</f>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="25.5">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C10" s="4">
+        <f>IF(ISNA(VLOOKUP(A10, D:D, 1, FALSE)), "null",A10)</f>
       </c>
       <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AQ' /&gt;</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='AQ' /&gt;</v>
+      <c r="E10" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A10&amp;"' /&gt;"</f>
+      </c>
+      <c r="F10" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A10&amp;"' /&gt;"</f>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="25.5">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AR</v>
+      <c r="C11" s="4">
+        <f>IF(ISNA(VLOOKUP(A11, D:D, 1, FALSE)), "null",A11)</f>
       </c>
       <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AR' /&gt;</v>
-      </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='AR' /&gt;</v>
+      <c r="E11" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A11&amp;"' /&gt;"</f>
+      </c>
+      <c r="F11" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A11&amp;"' /&gt;"</f>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="25.5">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C12" s="4">
+        <f>IF(ISNA(VLOOKUP(A12, D:D, 1, FALSE)), "null",A12)</f>
       </c>
       <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AS' /&gt;</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='AS' /&gt;</v>
+      <c r="E12" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A12&amp;"' /&gt;"</f>
+      </c>
+      <c r="F12" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A12&amp;"' /&gt;"</f>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="25.5">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AT</v>
+      <c r="C13" s="4">
+        <f>IF(ISNA(VLOOKUP(A13, D:D, 1, FALSE)), "null",A13)</f>
       </c>
       <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AT' /&gt;</v>
-      </c>
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='AT' /&gt;</v>
+      <c r="E13" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A13&amp;"' /&gt;"</f>
+      </c>
+      <c r="F13" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A13&amp;"' /&gt;"</f>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="25.5">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AU</v>
+      <c r="C14" s="4">
+        <f>IF(ISNA(VLOOKUP(A14, D:D, 1, FALSE)), "null",A14)</f>
       </c>
       <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AU' /&gt;</v>
-      </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='AU' /&gt;</v>
+      <c r="E14" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A14&amp;"' /&gt;"</f>
+      </c>
+      <c r="F14" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A14&amp;"' /&gt;"</f>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="25.5">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C15" s="4">
+        <f>IF(ISNA(VLOOKUP(A15, D:D, 1, FALSE)), "null",A15)</f>
       </c>
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AW' /&gt;</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='AW' /&gt;</v>
+      <c r="E15" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A15&amp;"' /&gt;"</f>
+      </c>
+      <c r="F15" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A15&amp;"' /&gt;"</f>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="25.5">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C16" s="4">
+        <f>IF(ISNA(VLOOKUP(A16, D:D, 1, FALSE)), "null",A16)</f>
       </c>
       <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AX' /&gt;</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='AX' /&gt;</v>
+      <c r="E16" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A16&amp;"' /&gt;"</f>
+      </c>
+      <c r="F16" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A16&amp;"' /&gt;"</f>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="25.5">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C17" s="4">
+        <f>IF(ISNA(VLOOKUP(A17, D:D, 1, FALSE)), "null",A17)</f>
       </c>
       <c r="D17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='AZ' /&gt;</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='AZ' /&gt;</v>
+      <c r="E17" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A17&amp;"' /&gt;"</f>
+      </c>
+      <c r="F17" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A17&amp;"' /&gt;"</f>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="25.5">
       <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C18" s="4">
+        <f>IF(ISNA(VLOOKUP(A18, D:D, 1, FALSE)), "null",A18)</f>
       </c>
       <c r="D18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BA' /&gt;</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BA' /&gt;</v>
+      <c r="E18" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A18&amp;"' /&gt;"</f>
+      </c>
+      <c r="F18" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A18&amp;"' /&gt;"</f>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="25.5">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C19" s="4">
+        <f>IF(ISNA(VLOOKUP(A19, D:D, 1, FALSE)), "null",A19)</f>
       </c>
       <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BB' /&gt;</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BB' /&gt;</v>
+      <c r="E19" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A19&amp;"' /&gt;"</f>
+      </c>
+      <c r="F19" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A19&amp;"' /&gt;"</f>
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="25.5">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C20" s="4">
+        <f>IF(ISNA(VLOOKUP(A20, D:D, 1, FALSE)), "null",A20)</f>
       </c>
       <c r="D20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BD' /&gt;</v>
-      </c>
-      <c r="F20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BD' /&gt;</v>
+      <c r="E20" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A20&amp;"' /&gt;"</f>
+      </c>
+      <c r="F20" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A20&amp;"' /&gt;"</f>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="25.5">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BE</v>
+      <c r="C21" s="4">
+        <f>IF(ISNA(VLOOKUP(A21, D:D, 1, FALSE)), "null",A21)</f>
       </c>
       <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BE' /&gt;</v>
-      </c>
-      <c r="F21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BE' /&gt;</v>
+      <c r="E21" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A21&amp;"' /&gt;"</f>
+      </c>
+      <c r="F21" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A21&amp;"' /&gt;"</f>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="25.5">
       <c r="A22" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C22" s="4">
+        <f>IF(ISNA(VLOOKUP(A22, D:D, 1, FALSE)), "null",A22)</f>
       </c>
       <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BF' /&gt;</v>
-      </c>
-      <c r="F22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BF' /&gt;</v>
+      <c r="E22" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A22&amp;"' /&gt;"</f>
+      </c>
+      <c r="F22" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A22&amp;"' /&gt;"</f>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="25.5">
       <c r="A23" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BG</v>
+      <c r="C23" s="4">
+        <f>IF(ISNA(VLOOKUP(A23, D:D, 1, FALSE)), "null",A23)</f>
       </c>
       <c r="D23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BG' /&gt;</v>
-      </c>
-      <c r="F23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BG' /&gt;</v>
+      <c r="E23" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A23&amp;"' /&gt;"</f>
+      </c>
+      <c r="F23" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A23&amp;"' /&gt;"</f>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="25.5">
       <c r="A24" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C24" s="4">
+        <f>IF(ISNA(VLOOKUP(A24, D:D, 1, FALSE)), "null",A24)</f>
       </c>
       <c r="D24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BH' /&gt;</v>
-      </c>
-      <c r="F24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BH' /&gt;</v>
+      <c r="E24" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A24&amp;"' /&gt;"</f>
+      </c>
+      <c r="F24" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A24&amp;"' /&gt;"</f>
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="25.5">
       <c r="A25" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C25" s="4">
+        <f>IF(ISNA(VLOOKUP(A25, D:D, 1, FALSE)), "null",A25)</f>
       </c>
       <c r="D25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BI' /&gt;</v>
-      </c>
-      <c r="F25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BI' /&gt;</v>
+      <c r="E25" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A25&amp;"' /&gt;"</f>
+      </c>
+      <c r="F25" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A25&amp;"' /&gt;"</f>
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="25.5">
       <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C26" s="4">
+        <f>IF(ISNA(VLOOKUP(A26, D:D, 1, FALSE)), "null",A26)</f>
       </c>
       <c r="D26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BJ' /&gt;</v>
-      </c>
-      <c r="F26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BJ' /&gt;</v>
+      <c r="E26" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A26&amp;"' /&gt;"</f>
+      </c>
+      <c r="F26" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A26&amp;"' /&gt;"</f>
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="25.5">
       <c r="A27" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C27" s="4">
+        <f>IF(ISNA(VLOOKUP(A27, D:D, 1, FALSE)), "null",A27)</f>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BL' /&gt;</v>
-      </c>
-      <c r="F27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BL' /&gt;</v>
+      <c r="E27" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A27&amp;"' /&gt;"</f>
+      </c>
+      <c r="F27" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A27&amp;"' /&gt;"</f>
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="25.5">
       <c r="A28" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C28" s="4">
+        <f>IF(ISNA(VLOOKUP(A28, D:D, 1, FALSE)), "null",A28)</f>
       </c>
       <c r="D28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BM' /&gt;</v>
-      </c>
-      <c r="F28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BM' /&gt;</v>
+      <c r="E28" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A28&amp;"' /&gt;"</f>
+      </c>
+      <c r="F28" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A28&amp;"' /&gt;"</f>
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="25.5">
       <c r="A29" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C29" s="4">
+        <f>IF(ISNA(VLOOKUP(A29, D:D, 1, FALSE)), "null",A29)</f>
       </c>
       <c r="D29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BN' /&gt;</v>
-      </c>
-      <c r="F29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BN' /&gt;</v>
+      <c r="E29" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A29&amp;"' /&gt;"</f>
+      </c>
+      <c r="F29" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A29&amp;"' /&gt;"</f>
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="25.5">
       <c r="A30" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C30" s="4">
+        <f>IF(ISNA(VLOOKUP(A30, D:D, 1, FALSE)), "null",A30)</f>
       </c>
       <c r="D30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BO' /&gt;</v>
-      </c>
-      <c r="F30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BO' /&gt;</v>
+      <c r="E30" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A30&amp;"' /&gt;"</f>
+      </c>
+      <c r="F30" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A30&amp;"' /&gt;"</f>
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="25.5">
       <c r="A31" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C31" s="4">
+        <f>IF(ISNA(VLOOKUP(A31, D:D, 1, FALSE)), "null",A31)</f>
       </c>
       <c r="D31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BQ' /&gt;</v>
-      </c>
-      <c r="F31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BQ' /&gt;</v>
+      <c r="E31" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A31&amp;"' /&gt;"</f>
+      </c>
+      <c r="F31" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A31&amp;"' /&gt;"</f>
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="25.5">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BR</v>
+      <c r="C32" s="4">
+        <f>IF(ISNA(VLOOKUP(A32, D:D, 1, FALSE)), "null",A32)</f>
       </c>
       <c r="D32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BR' /&gt;</v>
-      </c>
-      <c r="F32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BR' /&gt;</v>
+      <c r="E32" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A32&amp;"' /&gt;"</f>
+      </c>
+      <c r="F32" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A32&amp;"' /&gt;"</f>
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="25.5">
       <c r="A33" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C33" s="4">
+        <f>IF(ISNA(VLOOKUP(A33, D:D, 1, FALSE)), "null",A33)</f>
       </c>
       <c r="D33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BS' /&gt;</v>
-      </c>
-      <c r="F33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BS' /&gt;</v>
+      <c r="E33" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A33&amp;"' /&gt;"</f>
+      </c>
+      <c r="F33" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A33&amp;"' /&gt;"</f>
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="25.5">
       <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C34" s="4">
+        <f>IF(ISNA(VLOOKUP(A34, D:D, 1, FALSE)), "null",A34)</f>
       </c>
       <c r="D34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BT' /&gt;</v>
-      </c>
-      <c r="F34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BT' /&gt;</v>
+      <c r="E34" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A34&amp;"' /&gt;"</f>
+      </c>
+      <c r="F34" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A34&amp;"' /&gt;"</f>
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C35" s="4">
+        <f>IF(ISNA(VLOOKUP(A35, D:D, 1, FALSE)), "null",A35)</f>
       </c>
       <c r="D35" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BW' /&gt;</v>
-      </c>
-      <c r="F35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BW' /&gt;</v>
+      <c r="E35" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A35&amp;"' /&gt;"</f>
+      </c>
+      <c r="F35" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A35&amp;"' /&gt;"</f>
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C36" s="4">
+        <f>IF(ISNA(VLOOKUP(A36, D:D, 1, FALSE)), "null",A36)</f>
       </c>
       <c r="D36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BY' /&gt;</v>
-      </c>
-      <c r="F36" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BY' /&gt;</v>
+      <c r="E36" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A36&amp;"' /&gt;"</f>
+      </c>
+      <c r="F36" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A36&amp;"' /&gt;"</f>
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C37" s="4">
+        <f>IF(ISNA(VLOOKUP(A37, D:D, 1, FALSE)), "null",A37)</f>
       </c>
       <c r="D37" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='BZ' /&gt;</v>
-      </c>
-      <c r="F37" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='BZ' /&gt;</v>
+      <c r="E37" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A37&amp;"' /&gt;"</f>
+      </c>
+      <c r="F37" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A37&amp;"' /&gt;"</f>
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CA</v>
+      <c r="C38" s="4">
+        <f>IF(ISNA(VLOOKUP(A38, D:D, 1, FALSE)), "null",A38)</f>
       </c>
       <c r="D38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CA' /&gt;</v>
-      </c>
-      <c r="F38" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CA' /&gt;</v>
+      <c r="E38" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A38&amp;"' /&gt;"</f>
+      </c>
+      <c r="F38" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A38&amp;"' /&gt;"</f>
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C39" s="4">
+        <f>IF(ISNA(VLOOKUP(A39, D:D, 1, FALSE)), "null",A39)</f>
       </c>
       <c r="D39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CC' /&gt;</v>
-      </c>
-      <c r="F39" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CC' /&gt;</v>
+      <c r="E39" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A39&amp;"' /&gt;"</f>
+      </c>
+      <c r="F39" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A39&amp;"' /&gt;"</f>
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C40" s="4">
+        <f>IF(ISNA(VLOOKUP(A40, D:D, 1, FALSE)), "null",A40)</f>
       </c>
       <c r="D40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CD' /&gt;</v>
-      </c>
-      <c r="F40" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CD' /&gt;</v>
+      <c r="E40" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A40&amp;"' /&gt;"</f>
+      </c>
+      <c r="F40" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A40&amp;"' /&gt;"</f>
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C41" s="4">
+        <f>IF(ISNA(VLOOKUP(A41, D:D, 1, FALSE)), "null",A41)</f>
       </c>
       <c r="D41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CF' /&gt;</v>
-      </c>
-      <c r="F41" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CF' /&gt;</v>
+      <c r="E41" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A41&amp;"' /&gt;"</f>
+      </c>
+      <c r="F41" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A41&amp;"' /&gt;"</f>
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C42" s="4">
+        <f>IF(ISNA(VLOOKUP(A42, D:D, 1, FALSE)), "null",A42)</f>
       </c>
       <c r="D42" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CG' /&gt;</v>
-      </c>
-      <c r="F42" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CG' /&gt;</v>
+      <c r="E42" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A42&amp;"' /&gt;"</f>
+      </c>
+      <c r="F42" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A42&amp;"' /&gt;"</f>
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CH</v>
+      <c r="C43" s="4">
+        <f>IF(ISNA(VLOOKUP(A43, D:D, 1, FALSE)), "null",A43)</f>
       </c>
       <c r="D43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CH' /&gt;</v>
-      </c>
-      <c r="F43" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CH' /&gt;</v>
+      <c r="E43" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A43&amp;"' /&gt;"</f>
+      </c>
+      <c r="F43" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A43&amp;"' /&gt;"</f>
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C44" s="4">
+        <f>IF(ISNA(VLOOKUP(A44, D:D, 1, FALSE)), "null",A44)</f>
       </c>
       <c r="D44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CI' /&gt;</v>
-      </c>
-      <c r="F44" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CI' /&gt;</v>
+      <c r="E44" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A44&amp;"' /&gt;"</f>
+      </c>
+      <c r="F44" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A44&amp;"' /&gt;"</f>
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C45" s="4">
+        <f>IF(ISNA(VLOOKUP(A45, D:D, 1, FALSE)), "null",A45)</f>
       </c>
       <c r="D45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CK' /&gt;</v>
-      </c>
-      <c r="F45" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CK' /&gt;</v>
+      <c r="E45" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A45&amp;"' /&gt;"</f>
+      </c>
+      <c r="F45" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A45&amp;"' /&gt;"</f>
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CL</v>
+      <c r="C46" s="4">
+        <f>IF(ISNA(VLOOKUP(A46, D:D, 1, FALSE)), "null",A46)</f>
       </c>
       <c r="D46" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CL' /&gt;</v>
-      </c>
-      <c r="F46" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CL' /&gt;</v>
+      <c r="E46" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A46&amp;"' /&gt;"</f>
+      </c>
+      <c r="F46" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A46&amp;"' /&gt;"</f>
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C47" s="4">
+        <f>IF(ISNA(VLOOKUP(A47, D:D, 1, FALSE)), "null",A47)</f>
       </c>
       <c r="D47" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CM' /&gt;</v>
-      </c>
-      <c r="F47" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CM' /&gt;</v>
+      <c r="E47" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A47&amp;"' /&gt;"</f>
+      </c>
+      <c r="F47" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A47&amp;"' /&gt;"</f>
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CN</v>
+      <c r="C48" s="4">
+        <f>IF(ISNA(VLOOKUP(A48, D:D, 1, FALSE)), "null",A48)</f>
       </c>
       <c r="D48" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CN' /&gt;</v>
-      </c>
-      <c r="F48" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CN' /&gt;</v>
+      <c r="E48" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A48&amp;"' /&gt;"</f>
+      </c>
+      <c r="F48" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A48&amp;"' /&gt;"</f>
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CO</v>
+      <c r="C49" s="4">
+        <f>IF(ISNA(VLOOKUP(A49, D:D, 1, FALSE)), "null",A49)</f>
       </c>
       <c r="D49" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CO' /&gt;</v>
-      </c>
-      <c r="F49" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CO' /&gt;</v>
+      <c r="E49" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A49&amp;"' /&gt;"</f>
+      </c>
+      <c r="F49" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A49&amp;"' /&gt;"</f>
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C50" s="4">
+        <f>IF(ISNA(VLOOKUP(A50, D:D, 1, FALSE)), "null",A50)</f>
       </c>
       <c r="D50" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CR' /&gt;</v>
-      </c>
-      <c r="F50" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CR' /&gt;</v>
+      <c r="E50" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A50&amp;"' /&gt;"</f>
+      </c>
+      <c r="F50" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A50&amp;"' /&gt;"</f>
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C51" s="4">
+        <f>IF(ISNA(VLOOKUP(A51, D:D, 1, FALSE)), "null",A51)</f>
       </c>
       <c r="D51" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CU' /&gt;</v>
-      </c>
-      <c r="F51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CU' /&gt;</v>
+      <c r="E51" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A51&amp;"' /&gt;"</f>
+      </c>
+      <c r="F51" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A51&amp;"' /&gt;"</f>
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C52" s="4">
+        <f>IF(ISNA(VLOOKUP(A52, D:D, 1, FALSE)), "null",A52)</f>
       </c>
       <c r="D52" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CV' /&gt;</v>
-      </c>
-      <c r="F52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CV' /&gt;</v>
+      <c r="E52" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A52&amp;"' /&gt;"</f>
+      </c>
+      <c r="F52" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A52&amp;"' /&gt;"</f>
       </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C53" s="4">
+        <f>IF(ISNA(VLOOKUP(A53, D:D, 1, FALSE)), "null",A53)</f>
       </c>
       <c r="D53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CW' /&gt;</v>
-      </c>
-      <c r="F53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CW' /&gt;</v>
+      <c r="E53" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A53&amp;"' /&gt;"</f>
+      </c>
+      <c r="F53" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A53&amp;"' /&gt;"</f>
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C54" s="4">
+        <f>IF(ISNA(VLOOKUP(A54, D:D, 1, FALSE)), "null",A54)</f>
       </c>
       <c r="D54" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CX' /&gt;</v>
-      </c>
-      <c r="F54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CX' /&gt;</v>
+      <c r="E54" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A54&amp;"' /&gt;"</f>
+      </c>
+      <c r="F54" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A54&amp;"' /&gt;"</f>
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C55" s="4">
+        <f>IF(ISNA(VLOOKUP(A55, D:D, 1, FALSE)), "null",A55)</f>
       </c>
       <c r="D55" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CY' /&gt;</v>
-      </c>
-      <c r="F55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CY' /&gt;</v>
+      <c r="E55" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A55&amp;"' /&gt;"</f>
+      </c>
+      <c r="F55" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A55&amp;"' /&gt;"</f>
       </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CZ</v>
+      <c r="C56" s="4">
+        <f>IF(ISNA(VLOOKUP(A56, D:D, 1, FALSE)), "null",A56)</f>
       </c>
       <c r="D56" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='CZ' /&gt;</v>
-      </c>
-      <c r="F56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='CZ' /&gt;</v>
+      <c r="E56" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A56&amp;"' /&gt;"</f>
+      </c>
+      <c r="F56" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A56&amp;"' /&gt;"</f>
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DE</v>
+      <c r="C57" s="4">
+        <f>IF(ISNA(VLOOKUP(A57, D:D, 1, FALSE)), "null",A57)</f>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='DE' /&gt;</v>
-      </c>
-      <c r="F57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='DE' /&gt;</v>
+      <c r="E57" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A57&amp;"' /&gt;"</f>
+      </c>
+      <c r="F57" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A57&amp;"' /&gt;"</f>
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C58" s="4">
+        <f>IF(ISNA(VLOOKUP(A58, D:D, 1, FALSE)), "null",A58)</f>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='DJ' /&gt;</v>
-      </c>
-      <c r="F58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='DJ' /&gt;</v>
+      <c r="E58" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A58&amp;"' /&gt;"</f>
+      </c>
+      <c r="F58" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A58&amp;"' /&gt;"</f>
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DK</v>
+      <c r="C59" s="4">
+        <f>IF(ISNA(VLOOKUP(A59, D:D, 1, FALSE)), "null",A59)</f>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='DK' /&gt;</v>
-      </c>
-      <c r="F59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='DK' /&gt;</v>
+      <c r="E59" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A59&amp;"' /&gt;"</f>
+      </c>
+      <c r="F59" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A59&amp;"' /&gt;"</f>
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C60" s="4">
+        <f>IF(ISNA(VLOOKUP(A60, D:D, 1, FALSE)), "null",A60)</f>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='DM' /&gt;</v>
-      </c>
-      <c r="F60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='DM' /&gt;</v>
+      <c r="E60" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A60&amp;"' /&gt;"</f>
+      </c>
+      <c r="F60" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A60&amp;"' /&gt;"</f>
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C61" s="4">
+        <f>IF(ISNA(VLOOKUP(A61, D:D, 1, FALSE)), "null",A61)</f>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='DO' /&gt;</v>
-      </c>
-      <c r="F61" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='DO' /&gt;</v>
+      <c r="E61" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A61&amp;"' /&gt;"</f>
+      </c>
+      <c r="F61" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A61&amp;"' /&gt;"</f>
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C62" s="4">
+        <f>IF(ISNA(VLOOKUP(A62, D:D, 1, FALSE)), "null",A62)</f>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='DZ' /&gt;</v>
-      </c>
-      <c r="F62" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='DZ' /&gt;</v>
+      <c r="E62" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A62&amp;"' /&gt;"</f>
+      </c>
+      <c r="F62" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A62&amp;"' /&gt;"</f>
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C63" s="4">
+        <f>IF(ISNA(VLOOKUP(A63, D:D, 1, FALSE)), "null",A63)</f>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='EC' /&gt;</v>
-      </c>
-      <c r="F63" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='EC' /&gt;</v>
+      <c r="E63" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A63&amp;"' /&gt;"</f>
+      </c>
+      <c r="F63" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A63&amp;"' /&gt;"</f>
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C64" s="4">
+        <f>IF(ISNA(VLOOKUP(A64, D:D, 1, FALSE)), "null",A64)</f>
       </c>
       <c r="D64" s="1"/>
-      <c r="E64" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='EE' /&gt;</v>
-      </c>
-      <c r="F64" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='EE' /&gt;</v>
+      <c r="E64" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A64&amp;"' /&gt;"</f>
+      </c>
+      <c r="F64" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A64&amp;"' /&gt;"</f>
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EG</v>
+      <c r="C65" s="4">
+        <f>IF(ISNA(VLOOKUP(A65, D:D, 1, FALSE)), "null",A65)</f>
       </c>
       <c r="D65" s="1"/>
-      <c r="E65" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='EG' /&gt;</v>
-      </c>
-      <c r="F65" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='EG' /&gt;</v>
+      <c r="E65" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A65&amp;"' /&gt;"</f>
+      </c>
+      <c r="F65" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A65&amp;"' /&gt;"</f>
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="C66" s="4">
+        <f>IF(ISNA(VLOOKUP(A66, D:D, 1, FALSE)), "null",A66)</f>
       </c>
       <c r="D66" s="1"/>
-      <c r="E66" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='EH' /&gt;</v>
-      </c>
-      <c r="F66" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='EH' /&gt;</v>
+      <c r="E66" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A66&amp;"' /&gt;"</f>
+      </c>
+      <c r="F66" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A66&amp;"' /&gt;"</f>
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C67" s="1" t="str">
-        <f t="shared" ref="C67:C130" si="3">IF(ISNA(VLOOKUP(A67, D:D, 1, FALSE)), "null",A67)</f>
-        <v>null</v>
+      <c r="C67" s="4">
+        <f>IF(ISNA(VLOOKUP(A67, D:D, 1, FALSE)), "null",A67)</f>
       </c>
       <c r="D67" s="1"/>
-      <c r="E67" s="1" t="str">
-        <f t="shared" ref="E67:E130" si="4">"    &lt;Match status='yes' country='"&amp;A67&amp;"' /&gt;"</f>
-        <v xml:space="preserve">    &lt;Match status='yes' country='ER' /&gt;</v>
-      </c>
-      <c r="F67" s="1" t="str">
-        <f t="shared" ref="F67:F130" si="5">"    &lt;Match status='never' country='"&amp;A67&amp;"' /&gt;"</f>
-        <v xml:space="preserve">    &lt;Match status='never' country='ER' /&gt;</v>
+      <c r="E67" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A67&amp;"' /&gt;"</f>
+      </c>
+      <c r="F67" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A67&amp;"' /&gt;"</f>
       </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C68" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>ES</v>
+      <c r="C68" s="4">
+        <f>IF(ISNA(VLOOKUP(A68, D:D, 1, FALSE)), "null",A68)</f>
       </c>
       <c r="D68" s="1"/>
-      <c r="E68" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='ES' /&gt;</v>
-      </c>
-      <c r="F68" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='ES' /&gt;</v>
+      <c r="E68" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A68&amp;"' /&gt;"</f>
+      </c>
+      <c r="F68" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A68&amp;"' /&gt;"</f>
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C69" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C69" s="4">
+        <f>IF(ISNA(VLOOKUP(A69, D:D, 1, FALSE)), "null",A69)</f>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='ET' /&gt;</v>
-      </c>
-      <c r="F69" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='ET' /&gt;</v>
+      <c r="E69" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A69&amp;"' /&gt;"</f>
+      </c>
+      <c r="F69" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A69&amp;"' /&gt;"</f>
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C70" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>FI</v>
+      <c r="C70" s="4">
+        <f>IF(ISNA(VLOOKUP(A70, D:D, 1, FALSE)), "null",A70)</f>
       </c>
       <c r="D70" s="1"/>
-      <c r="E70" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='FI' /&gt;</v>
-      </c>
-      <c r="F70" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='FI' /&gt;</v>
+      <c r="E70" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A70&amp;"' /&gt;"</f>
+      </c>
+      <c r="F70" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A70&amp;"' /&gt;"</f>
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C71" s="4">
+        <f>IF(ISNA(VLOOKUP(A71, D:D, 1, FALSE)), "null",A71)</f>
       </c>
       <c r="D71" s="1"/>
-      <c r="E71" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='FJ' /&gt;</v>
-      </c>
-      <c r="F71" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='FJ' /&gt;</v>
+      <c r="E71" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A71&amp;"' /&gt;"</f>
+      </c>
+      <c r="F71" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A71&amp;"' /&gt;"</f>
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C72" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C72" s="4">
+        <f>IF(ISNA(VLOOKUP(A72, D:D, 1, FALSE)), "null",A72)</f>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='FK' /&gt;</v>
-      </c>
-      <c r="F72" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='FK' /&gt;</v>
+      <c r="E72" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A72&amp;"' /&gt;"</f>
+      </c>
+      <c r="F72" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A72&amp;"' /&gt;"</f>
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C73" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C73" s="4">
+        <f>IF(ISNA(VLOOKUP(A73, D:D, 1, FALSE)), "null",A73)</f>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='FM' /&gt;</v>
-      </c>
-      <c r="F73" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='FM' /&gt;</v>
+      <c r="E73" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A73&amp;"' /&gt;"</f>
+      </c>
+      <c r="F73" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A73&amp;"' /&gt;"</f>
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C74" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C74" s="4">
+        <f>IF(ISNA(VLOOKUP(A74, D:D, 1, FALSE)), "null",A74)</f>
       </c>
       <c r="D74" s="1"/>
-      <c r="E74" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='FO' /&gt;</v>
-      </c>
-      <c r="F74" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='FO' /&gt;</v>
+      <c r="E74" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A74&amp;"' /&gt;"</f>
+      </c>
+      <c r="F74" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A74&amp;"' /&gt;"</f>
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C75" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>FR</v>
+      <c r="C75" s="4">
+        <f>IF(ISNA(VLOOKUP(A75, D:D, 1, FALSE)), "null",A75)</f>
       </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='FR' /&gt;</v>
-      </c>
-      <c r="F75" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='FR' /&gt;</v>
+      <c r="E75" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A75&amp;"' /&gt;"</f>
+      </c>
+      <c r="F75" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A75&amp;"' /&gt;"</f>
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C76" s="4">
+        <f>IF(ISNA(VLOOKUP(A76, D:D, 1, FALSE)), "null",A76)</f>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GA' /&gt;</v>
-      </c>
-      <c r="F76" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GA' /&gt;</v>
+      <c r="E76" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A76&amp;"' /&gt;"</f>
+      </c>
+      <c r="F76" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A76&amp;"' /&gt;"</f>
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C77" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>GB</v>
+      <c r="C77" s="4">
+        <f>IF(ISNA(VLOOKUP(A77, D:D, 1, FALSE)), "null",A77)</f>
       </c>
       <c r="D77" s="1"/>
-      <c r="E77" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GB' /&gt;</v>
-      </c>
-      <c r="F77" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GB' /&gt;</v>
+      <c r="E77" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A77&amp;"' /&gt;"</f>
+      </c>
+      <c r="F77" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A77&amp;"' /&gt;"</f>
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C78" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C78" s="4">
+        <f>IF(ISNA(VLOOKUP(A78, D:D, 1, FALSE)), "null",A78)</f>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GD' /&gt;</v>
-      </c>
-      <c r="F78" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GD' /&gt;</v>
+      <c r="E78" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A78&amp;"' /&gt;"</f>
+      </c>
+      <c r="F78" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A78&amp;"' /&gt;"</f>
       </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C79" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C79" s="4">
+        <f>IF(ISNA(VLOOKUP(A79, D:D, 1, FALSE)), "null",A79)</f>
       </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GE' /&gt;</v>
-      </c>
-      <c r="F79" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GE' /&gt;</v>
+      <c r="E79" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A79&amp;"' /&gt;"</f>
+      </c>
+      <c r="F79" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A79&amp;"' /&gt;"</f>
       </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C80" s="4">
+        <f>IF(ISNA(VLOOKUP(A80, D:D, 1, FALSE)), "null",A80)</f>
       </c>
       <c r="D80" s="1"/>
-      <c r="E80" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GF' /&gt;</v>
-      </c>
-      <c r="F80" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GF' /&gt;</v>
+      <c r="E80" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A80&amp;"' /&gt;"</f>
+      </c>
+      <c r="F80" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A80&amp;"' /&gt;"</f>
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C81" s="4">
+        <f>IF(ISNA(VLOOKUP(A81, D:D, 1, FALSE)), "null",A81)</f>
       </c>
       <c r="D81" s="1"/>
-      <c r="E81" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GG' /&gt;</v>
-      </c>
-      <c r="F81" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GG' /&gt;</v>
+      <c r="E81" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A81&amp;"' /&gt;"</f>
+      </c>
+      <c r="F81" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A81&amp;"' /&gt;"</f>
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C82" s="4">
+        <f>IF(ISNA(VLOOKUP(A82, D:D, 1, FALSE)), "null",A82)</f>
       </c>
       <c r="D82" s="1"/>
-      <c r="E82" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GH' /&gt;</v>
-      </c>
-      <c r="F82" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GH' /&gt;</v>
+      <c r="E82" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A82&amp;"' /&gt;"</f>
+      </c>
+      <c r="F82" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A82&amp;"' /&gt;"</f>
       </c>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C83" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C83" s="4">
+        <f>IF(ISNA(VLOOKUP(A83, D:D, 1, FALSE)), "null",A83)</f>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GI' /&gt;</v>
-      </c>
-      <c r="F83" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GI' /&gt;</v>
+      <c r="E83" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A83&amp;"' /&gt;"</f>
+      </c>
+      <c r="F83" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A83&amp;"' /&gt;"</f>
       </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C84" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C84" s="4">
+        <f>IF(ISNA(VLOOKUP(A84, D:D, 1, FALSE)), "null",A84)</f>
       </c>
       <c r="D84" s="1"/>
-      <c r="E84" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GL' /&gt;</v>
-      </c>
-      <c r="F84" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GL' /&gt;</v>
+      <c r="E84" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A84&amp;"' /&gt;"</f>
+      </c>
+      <c r="F84" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A84&amp;"' /&gt;"</f>
       </c>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C85" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C85" s="4">
+        <f>IF(ISNA(VLOOKUP(A85, D:D, 1, FALSE)), "null",A85)</f>
       </c>
       <c r="D85" s="1"/>
-      <c r="E85" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GM' /&gt;</v>
-      </c>
-      <c r="F85" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GM' /&gt;</v>
+      <c r="E85" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A85&amp;"' /&gt;"</f>
+      </c>
+      <c r="F85" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A85&amp;"' /&gt;"</f>
       </c>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C86" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C86" s="4">
+        <f>IF(ISNA(VLOOKUP(A86, D:D, 1, FALSE)), "null",A86)</f>
       </c>
       <c r="D86" s="1"/>
-      <c r="E86" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GN' /&gt;</v>
-      </c>
-      <c r="F86" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GN' /&gt;</v>
+      <c r="E86" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A86&amp;"' /&gt;"</f>
+      </c>
+      <c r="F86" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A86&amp;"' /&gt;"</f>
       </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C87" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C87" s="4">
+        <f>IF(ISNA(VLOOKUP(A87, D:D, 1, FALSE)), "null",A87)</f>
       </c>
       <c r="D87" s="1"/>
-      <c r="E87" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GP' /&gt;</v>
-      </c>
-      <c r="F87" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GP' /&gt;</v>
+      <c r="E87" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A87&amp;"' /&gt;"</f>
+      </c>
+      <c r="F87" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A87&amp;"' /&gt;"</f>
       </c>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C88" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C88" s="4">
+        <f>IF(ISNA(VLOOKUP(A88, D:D, 1, FALSE)), "null",A88)</f>
       </c>
       <c r="D88" s="1"/>
-      <c r="E88" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GQ' /&gt;</v>
-      </c>
-      <c r="F88" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GQ' /&gt;</v>
+      <c r="E88" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A88&amp;"' /&gt;"</f>
+      </c>
+      <c r="F88" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A88&amp;"' /&gt;"</f>
       </c>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C89" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>GR</v>
+      <c r="C89" s="4">
+        <f>IF(ISNA(VLOOKUP(A89, D:D, 1, FALSE)), "null",A89)</f>
       </c>
       <c r="D89" s="1"/>
-      <c r="E89" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GR' /&gt;</v>
-      </c>
-      <c r="F89" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GR' /&gt;</v>
+      <c r="E89" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A89&amp;"' /&gt;"</f>
+      </c>
+      <c r="F89" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A89&amp;"' /&gt;"</f>
       </c>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C90" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C90" s="4">
+        <f>IF(ISNA(VLOOKUP(A90, D:D, 1, FALSE)), "null",A90)</f>
       </c>
       <c r="D90" s="1"/>
-      <c r="E90" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GS' /&gt;</v>
-      </c>
-      <c r="F90" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GS' /&gt;</v>
+      <c r="E90" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A90&amp;"' /&gt;"</f>
+      </c>
+      <c r="F90" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A90&amp;"' /&gt;"</f>
       </c>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C91" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C91" s="4">
+        <f>IF(ISNA(VLOOKUP(A91, D:D, 1, FALSE)), "null",A91)</f>
       </c>
       <c r="D91" s="1"/>
-      <c r="E91" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GT' /&gt;</v>
-      </c>
-      <c r="F91" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GT' /&gt;</v>
+      <c r="E91" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A91&amp;"' /&gt;"</f>
+      </c>
+      <c r="F91" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A91&amp;"' /&gt;"</f>
       </c>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C92" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C92" s="4">
+        <f>IF(ISNA(VLOOKUP(A92, D:D, 1, FALSE)), "null",A92)</f>
       </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GU' /&gt;</v>
-      </c>
-      <c r="F92" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GU' /&gt;</v>
+      <c r="E92" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A92&amp;"' /&gt;"</f>
+      </c>
+      <c r="F92" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A92&amp;"' /&gt;"</f>
       </c>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C93" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C93" s="4">
+        <f>IF(ISNA(VLOOKUP(A93, D:D, 1, FALSE)), "null",A93)</f>
       </c>
       <c r="D93" s="1"/>
-      <c r="E93" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GW' /&gt;</v>
-      </c>
-      <c r="F93" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GW' /&gt;</v>
+      <c r="E93" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A93&amp;"' /&gt;"</f>
+      </c>
+      <c r="F93" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A93&amp;"' /&gt;"</f>
       </c>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C94" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C94" s="4">
+        <f>IF(ISNA(VLOOKUP(A94, D:D, 1, FALSE)), "null",A94)</f>
       </c>
       <c r="D94" s="1"/>
-      <c r="E94" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='GY' /&gt;</v>
-      </c>
-      <c r="F94" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='GY' /&gt;</v>
+      <c r="E94" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A94&amp;"' /&gt;"</f>
+      </c>
+      <c r="F94" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A94&amp;"' /&gt;"</f>
       </c>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C95" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>HK</v>
+      <c r="C95" s="4">
+        <f>IF(ISNA(VLOOKUP(A95, D:D, 1, FALSE)), "null",A95)</f>
       </c>
       <c r="D95" s="1"/>
-      <c r="E95" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='HK' /&gt;</v>
-      </c>
-      <c r="F95" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='HK' /&gt;</v>
+      <c r="E95" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A95&amp;"' /&gt;"</f>
+      </c>
+      <c r="F95" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A95&amp;"' /&gt;"</f>
       </c>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C96" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C96" s="4">
+        <f>IF(ISNA(VLOOKUP(A96, D:D, 1, FALSE)), "null",A96)</f>
       </c>
       <c r="D96" s="1"/>
-      <c r="E96" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='HN' /&gt;</v>
-      </c>
-      <c r="F96" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='HN' /&gt;</v>
+      <c r="E96" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A96&amp;"' /&gt;"</f>
+      </c>
+      <c r="F96" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A96&amp;"' /&gt;"</f>
       </c>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C97" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C97" s="4">
+        <f>IF(ISNA(VLOOKUP(A97, D:D, 1, FALSE)), "null",A97)</f>
       </c>
       <c r="D97" s="1"/>
-      <c r="E97" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='HR' /&gt;</v>
-      </c>
-      <c r="F97" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='HR' /&gt;</v>
+      <c r="E97" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A97&amp;"' /&gt;"</f>
+      </c>
+      <c r="F97" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A97&amp;"' /&gt;"</f>
       </c>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C98" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C98" s="4">
+        <f>IF(ISNA(VLOOKUP(A98, D:D, 1, FALSE)), "null",A98)</f>
       </c>
       <c r="D98" s="1"/>
-      <c r="E98" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='HT' /&gt;</v>
-      </c>
-      <c r="F98" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='HT' /&gt;</v>
+      <c r="E98" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A98&amp;"' /&gt;"</f>
+      </c>
+      <c r="F98" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A98&amp;"' /&gt;"</f>
       </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C99" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>HU</v>
+      <c r="C99" s="4">
+        <f>IF(ISNA(VLOOKUP(A99, D:D, 1, FALSE)), "null",A99)</f>
       </c>
       <c r="D99" s="1"/>
-      <c r="E99" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='HU' /&gt;</v>
-      </c>
-      <c r="F99" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='HU' /&gt;</v>
+      <c r="E99" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A99&amp;"' /&gt;"</f>
+      </c>
+      <c r="F99" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A99&amp;"' /&gt;"</f>
       </c>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C100" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>ID</v>
+      <c r="C100" s="4">
+        <f>IF(ISNA(VLOOKUP(A100, D:D, 1, FALSE)), "null",A100)</f>
       </c>
       <c r="D100" s="1"/>
-      <c r="E100" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='ID' /&gt;</v>
-      </c>
-      <c r="F100" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='ID' /&gt;</v>
+      <c r="E100" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A100&amp;"' /&gt;"</f>
+      </c>
+      <c r="F100" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A100&amp;"' /&gt;"</f>
       </c>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C101" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>IE</v>
+      <c r="C101" s="4">
+        <f>IF(ISNA(VLOOKUP(A101, D:D, 1, FALSE)), "null",A101)</f>
       </c>
       <c r="D101" s="1"/>
-      <c r="E101" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='IE' /&gt;</v>
-      </c>
-      <c r="F101" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='IE' /&gt;</v>
+      <c r="E101" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A101&amp;"' /&gt;"</f>
+      </c>
+      <c r="F101" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A101&amp;"' /&gt;"</f>
       </c>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C102" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>IL</v>
+      <c r="C102" s="4">
+        <f>IF(ISNA(VLOOKUP(A102, D:D, 1, FALSE)), "null",A102)</f>
       </c>
       <c r="D102" s="1"/>
-      <c r="E102" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='IL' /&gt;</v>
-      </c>
-      <c r="F102" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='IL' /&gt;</v>
+      <c r="E102" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A102&amp;"' /&gt;"</f>
+      </c>
+      <c r="F102" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A102&amp;"' /&gt;"</f>
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C103" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C103" s="4">
+        <f>IF(ISNA(VLOOKUP(A103, D:D, 1, FALSE)), "null",A103)</f>
       </c>
       <c r="D103" s="1"/>
-      <c r="E103" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='IM' /&gt;</v>
-      </c>
-      <c r="F103" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='IM' /&gt;</v>
+      <c r="E103" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A103&amp;"' /&gt;"</f>
+      </c>
+      <c r="F103" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A103&amp;"' /&gt;"</f>
       </c>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C104" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>IN</v>
+      <c r="C104" s="4">
+        <f>IF(ISNA(VLOOKUP(A104, D:D, 1, FALSE)), "null",A104)</f>
       </c>
       <c r="D104" s="1"/>
-      <c r="E104" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='IN' /&gt;</v>
-      </c>
-      <c r="F104" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='IN' /&gt;</v>
+      <c r="E104" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A104&amp;"' /&gt;"</f>
+      </c>
+      <c r="F104" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A104&amp;"' /&gt;"</f>
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C105" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C105" s="4">
+        <f>IF(ISNA(VLOOKUP(A105, D:D, 1, FALSE)), "null",A105)</f>
       </c>
       <c r="D105" s="1"/>
-      <c r="E105" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='IO' /&gt;</v>
-      </c>
-      <c r="F105" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='IO' /&gt;</v>
+      <c r="E105" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A105&amp;"' /&gt;"</f>
+      </c>
+      <c r="F105" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A105&amp;"' /&gt;"</f>
       </c>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C106" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C106" s="4">
+        <f>IF(ISNA(VLOOKUP(A106, D:D, 1, FALSE)), "null",A106)</f>
       </c>
       <c r="D106" s="1"/>
-      <c r="E106" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='IQ' /&gt;</v>
-      </c>
-      <c r="F106" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='IQ' /&gt;</v>
+      <c r="E106" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A106&amp;"' /&gt;"</f>
+      </c>
+      <c r="F106" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A106&amp;"' /&gt;"</f>
       </c>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C107" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C107" s="4">
+        <f>IF(ISNA(VLOOKUP(A107, D:D, 1, FALSE)), "null",A107)</f>
       </c>
       <c r="D107" s="1"/>
-      <c r="E107" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='IR' /&gt;</v>
-      </c>
-      <c r="F107" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='IR' /&gt;</v>
+      <c r="E107" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A107&amp;"' /&gt;"</f>
+      </c>
+      <c r="F107" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A107&amp;"' /&gt;"</f>
       </c>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C108" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C108" s="4">
+        <f>IF(ISNA(VLOOKUP(A108, D:D, 1, FALSE)), "null",A108)</f>
       </c>
       <c r="D108" s="1"/>
-      <c r="E108" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='IS' /&gt;</v>
-      </c>
-      <c r="F108" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='IS' /&gt;</v>
+      <c r="E108" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A108&amp;"' /&gt;"</f>
+      </c>
+      <c r="F108" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A108&amp;"' /&gt;"</f>
       </c>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C109" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>IT</v>
+      <c r="C109" s="4">
+        <f>IF(ISNA(VLOOKUP(A109, D:D, 1, FALSE)), "null",A109)</f>
       </c>
       <c r="D109" s="1"/>
-      <c r="E109" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='IT' /&gt;</v>
-      </c>
-      <c r="F109" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='IT' /&gt;</v>
+      <c r="E109" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A109&amp;"' /&gt;"</f>
+      </c>
+      <c r="F109" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A109&amp;"' /&gt;"</f>
       </c>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C110" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C110" s="4">
+        <f>IF(ISNA(VLOOKUP(A110, D:D, 1, FALSE)), "null",A110)</f>
       </c>
       <c r="D110" s="1"/>
-      <c r="E110" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='JE' /&gt;</v>
-      </c>
-      <c r="F110" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='JE' /&gt;</v>
+      <c r="E110" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A110&amp;"' /&gt;"</f>
+      </c>
+      <c r="F110" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A110&amp;"' /&gt;"</f>
       </c>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C111" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C111" s="4">
+        <f>IF(ISNA(VLOOKUP(A111, D:D, 1, FALSE)), "null",A111)</f>
       </c>
       <c r="D111" s="1"/>
-      <c r="E111" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='JM' /&gt;</v>
-      </c>
-      <c r="F111" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='JM' /&gt;</v>
+      <c r="E111" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A111&amp;"' /&gt;"</f>
+      </c>
+      <c r="F111" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A111&amp;"' /&gt;"</f>
       </c>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C112" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>JO</v>
+      <c r="C112" s="4">
+        <f>IF(ISNA(VLOOKUP(A112, D:D, 1, FALSE)), "null",A112)</f>
       </c>
       <c r="D112" s="1"/>
-      <c r="E112" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='JO' /&gt;</v>
-      </c>
-      <c r="F112" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='JO' /&gt;</v>
+      <c r="E112" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A112&amp;"' /&gt;"</f>
+      </c>
+      <c r="F112" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A112&amp;"' /&gt;"</f>
       </c>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C113" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>JP</v>
+      <c r="C113" s="4">
+        <f>IF(ISNA(VLOOKUP(A113, D:D, 1, FALSE)), "null",A113)</f>
       </c>
       <c r="D113" s="1"/>
-      <c r="E113" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='JP' /&gt;</v>
-      </c>
-      <c r="F113" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='JP' /&gt;</v>
+      <c r="E113" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A113&amp;"' /&gt;"</f>
+      </c>
+      <c r="F113" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A113&amp;"' /&gt;"</f>
       </c>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C114" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C114" s="4">
+        <f>IF(ISNA(VLOOKUP(A114, D:D, 1, FALSE)), "null",A114)</f>
       </c>
       <c r="D114" s="1"/>
-      <c r="E114" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='KE' /&gt;</v>
-      </c>
-      <c r="F114" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='KE' /&gt;</v>
+      <c r="E114" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A114&amp;"' /&gt;"</f>
+      </c>
+      <c r="F114" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A114&amp;"' /&gt;"</f>
       </c>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C115" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C115" s="4">
+        <f>IF(ISNA(VLOOKUP(A115, D:D, 1, FALSE)), "null",A115)</f>
       </c>
       <c r="D115" s="1"/>
-      <c r="E115" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='KG' /&gt;</v>
-      </c>
-      <c r="F115" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='KG' /&gt;</v>
+      <c r="E115" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A115&amp;"' /&gt;"</f>
+      </c>
+      <c r="F115" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A115&amp;"' /&gt;"</f>
       </c>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C116" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C116" s="4">
+        <f>IF(ISNA(VLOOKUP(A116, D:D, 1, FALSE)), "null",A116)</f>
       </c>
       <c r="D116" s="1"/>
-      <c r="E116" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='KH' /&gt;</v>
-      </c>
-      <c r="F116" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='KH' /&gt;</v>
+      <c r="E116" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A116&amp;"' /&gt;"</f>
+      </c>
+      <c r="F116" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A116&amp;"' /&gt;"</f>
       </c>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C117" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C117" s="4">
+        <f>IF(ISNA(VLOOKUP(A117, D:D, 1, FALSE)), "null",A117)</f>
       </c>
       <c r="D117" s="1"/>
-      <c r="E117" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='KI' /&gt;</v>
-      </c>
-      <c r="F117" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='KI' /&gt;</v>
+      <c r="E117" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A117&amp;"' /&gt;"</f>
+      </c>
+      <c r="F117" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A117&amp;"' /&gt;"</f>
       </c>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C118" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C118" s="4">
+        <f>IF(ISNA(VLOOKUP(A118, D:D, 1, FALSE)), "null",A118)</f>
       </c>
       <c r="D118" s="1"/>
-      <c r="E118" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='KM' /&gt;</v>
-      </c>
-      <c r="F118" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='KM' /&gt;</v>
+      <c r="E118" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A118&amp;"' /&gt;"</f>
+      </c>
+      <c r="F118" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A118&amp;"' /&gt;"</f>
       </c>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C119" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C119" s="4">
+        <f>IF(ISNA(VLOOKUP(A119, D:D, 1, FALSE)), "null",A119)</f>
       </c>
       <c r="D119" s="1"/>
-      <c r="E119" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='KN' /&gt;</v>
-      </c>
-      <c r="F119" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='KN' /&gt;</v>
+      <c r="E119" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A119&amp;"' /&gt;"</f>
+      </c>
+      <c r="F119" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A119&amp;"' /&gt;"</f>
       </c>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C120" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C120" s="4">
+        <f>IF(ISNA(VLOOKUP(A120, D:D, 1, FALSE)), "null",A120)</f>
       </c>
       <c r="D120" s="1"/>
-      <c r="E120" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='KP' /&gt;</v>
-      </c>
-      <c r="F120" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='KP' /&gt;</v>
+      <c r="E120" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A120&amp;"' /&gt;"</f>
+      </c>
+      <c r="F120" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A120&amp;"' /&gt;"</f>
       </c>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C121" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>KR</v>
+      <c r="C121" s="4">
+        <f>IF(ISNA(VLOOKUP(A121, D:D, 1, FALSE)), "null",A121)</f>
       </c>
       <c r="D121" s="1"/>
-      <c r="E121" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='KR' /&gt;</v>
-      </c>
-      <c r="F121" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='KR' /&gt;</v>
+      <c r="E121" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A121&amp;"' /&gt;"</f>
+      </c>
+      <c r="F121" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A121&amp;"' /&gt;"</f>
       </c>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C122" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C122" s="4">
+        <f>IF(ISNA(VLOOKUP(A122, D:D, 1, FALSE)), "null",A122)</f>
       </c>
       <c r="D122" s="1"/>
-      <c r="E122" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='KW' /&gt;</v>
-      </c>
-      <c r="F122" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='KW' /&gt;</v>
+      <c r="E122" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A122&amp;"' /&gt;"</f>
+      </c>
+      <c r="F122" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A122&amp;"' /&gt;"</f>
       </c>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C123" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C123" s="4">
+        <f>IF(ISNA(VLOOKUP(A123, D:D, 1, FALSE)), "null",A123)</f>
       </c>
       <c r="D123" s="1"/>
-      <c r="E123" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='KY' /&gt;</v>
-      </c>
-      <c r="F123" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='KY' /&gt;</v>
+      <c r="E123" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A123&amp;"' /&gt;"</f>
+      </c>
+      <c r="F123" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A123&amp;"' /&gt;"</f>
       </c>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C124" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C124" s="4">
+        <f>IF(ISNA(VLOOKUP(A124, D:D, 1, FALSE)), "null",A124)</f>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='KZ' /&gt;</v>
-      </c>
-      <c r="F124" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='KZ' /&gt;</v>
+      <c r="E124" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A124&amp;"' /&gt;"</f>
+      </c>
+      <c r="F124" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A124&amp;"' /&gt;"</f>
       </c>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C125" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C125" s="4">
+        <f>IF(ISNA(VLOOKUP(A125, D:D, 1, FALSE)), "null",A125)</f>
       </c>
       <c r="D125" s="1"/>
-      <c r="E125" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='LA' /&gt;</v>
-      </c>
-      <c r="F125" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='LA' /&gt;</v>
+      <c r="E125" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A125&amp;"' /&gt;"</f>
+      </c>
+      <c r="F125" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A125&amp;"' /&gt;"</f>
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C126" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C126" s="4">
+        <f>IF(ISNA(VLOOKUP(A126, D:D, 1, FALSE)), "null",A126)</f>
       </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='LB' /&gt;</v>
-      </c>
-      <c r="F126" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='LB' /&gt;</v>
+      <c r="E126" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A126&amp;"' /&gt;"</f>
+      </c>
+      <c r="F126" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A126&amp;"' /&gt;"</f>
       </c>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C127" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C127" s="4">
+        <f>IF(ISNA(VLOOKUP(A127, D:D, 1, FALSE)), "null",A127)</f>
       </c>
       <c r="D127" s="1"/>
-      <c r="E127" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='LC' /&gt;</v>
-      </c>
-      <c r="F127" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='LC' /&gt;</v>
+      <c r="E127" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A127&amp;"' /&gt;"</f>
+      </c>
+      <c r="F127" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A127&amp;"' /&gt;"</f>
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C128" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C128" s="4">
+        <f>IF(ISNA(VLOOKUP(A128, D:D, 1, FALSE)), "null",A128)</f>
       </c>
       <c r="D128" s="1"/>
-      <c r="E128" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='LI' /&gt;</v>
-      </c>
-      <c r="F128" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='LI' /&gt;</v>
+      <c r="E128" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A128&amp;"' /&gt;"</f>
+      </c>
+      <c r="F128" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A128&amp;"' /&gt;"</f>
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C129" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>LK</v>
+      <c r="C129" s="4">
+        <f>IF(ISNA(VLOOKUP(A129, D:D, 1, FALSE)), "null",A129)</f>
       </c>
       <c r="D129" s="1"/>
-      <c r="E129" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='LK' /&gt;</v>
-      </c>
-      <c r="F129" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='LK' /&gt;</v>
+      <c r="E129" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A129&amp;"' /&gt;"</f>
+      </c>
+      <c r="F129" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A129&amp;"' /&gt;"</f>
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C130" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>null</v>
+      <c r="C130" s="4">
+        <f>IF(ISNA(VLOOKUP(A130, D:D, 1, FALSE)), "null",A130)</f>
       </c>
       <c r="D130" s="1"/>
-      <c r="E130" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='LR' /&gt;</v>
-      </c>
-      <c r="F130" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='LR' /&gt;</v>
+      <c r="E130" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A130&amp;"' /&gt;"</f>
+      </c>
+      <c r="F130" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A130&amp;"' /&gt;"</f>
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C131" s="1" t="str">
-        <f t="shared" ref="C131:C194" si="6">IF(ISNA(VLOOKUP(A131, D:D, 1, FALSE)), "null",A131)</f>
-        <v>null</v>
+      <c r="C131" s="4">
+        <f>IF(ISNA(VLOOKUP(A131, D:D, 1, FALSE)), "null",A131)</f>
       </c>
       <c r="D131" s="1"/>
-      <c r="E131" s="1" t="str">
-        <f t="shared" ref="E131:E194" si="7">"    &lt;Match status='yes' country='"&amp;A131&amp;"' /&gt;"</f>
-        <v xml:space="preserve">    &lt;Match status='yes' country='LS' /&gt;</v>
-      </c>
-      <c r="F131" s="1" t="str">
-        <f t="shared" ref="F131:F194" si="8">"    &lt;Match status='never' country='"&amp;A131&amp;"' /&gt;"</f>
-        <v xml:space="preserve">    &lt;Match status='never' country='LS' /&gt;</v>
+      <c r="E131" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A131&amp;"' /&gt;"</f>
+      </c>
+      <c r="F131" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A131&amp;"' /&gt;"</f>
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C132" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C132" s="4">
+        <f>IF(ISNA(VLOOKUP(A132, D:D, 1, FALSE)), "null",A132)</f>
       </c>
       <c r="D132" s="1"/>
-      <c r="E132" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='LT' /&gt;</v>
-      </c>
-      <c r="F132" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='LT' /&gt;</v>
+      <c r="E132" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A132&amp;"' /&gt;"</f>
+      </c>
+      <c r="F132" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A132&amp;"' /&gt;"</f>
       </c>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C133" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C133" s="4">
+        <f>IF(ISNA(VLOOKUP(A133, D:D, 1, FALSE)), "null",A133)</f>
       </c>
       <c r="D133" s="1"/>
-      <c r="E133" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='LU' /&gt;</v>
-      </c>
-      <c r="F133" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='LU' /&gt;</v>
+      <c r="E133" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A133&amp;"' /&gt;"</f>
+      </c>
+      <c r="F133" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A133&amp;"' /&gt;"</f>
       </c>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C134" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C134" s="4">
+        <f>IF(ISNA(VLOOKUP(A134, D:D, 1, FALSE)), "null",A134)</f>
       </c>
       <c r="D134" s="1"/>
-      <c r="E134" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='LV' /&gt;</v>
-      </c>
-      <c r="F134" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='LV' /&gt;</v>
+      <c r="E134" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A134&amp;"' /&gt;"</f>
+      </c>
+      <c r="F134" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A134&amp;"' /&gt;"</f>
       </c>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C135" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C135" s="4">
+        <f>IF(ISNA(VLOOKUP(A135, D:D, 1, FALSE)), "null",A135)</f>
       </c>
       <c r="D135" s="1"/>
-      <c r="E135" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='LY' /&gt;</v>
-      </c>
-      <c r="F135" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='LY' /&gt;</v>
+      <c r="E135" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A135&amp;"' /&gt;"</f>
+      </c>
+      <c r="F135" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A135&amp;"' /&gt;"</f>
       </c>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C136" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>MA</v>
+      <c r="C136" s="4">
+        <f>IF(ISNA(VLOOKUP(A136, D:D, 1, FALSE)), "null",A136)</f>
       </c>
       <c r="D136" s="1"/>
-      <c r="E136" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MA' /&gt;</v>
-      </c>
-      <c r="F136" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MA' /&gt;</v>
+      <c r="E136" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A136&amp;"' /&gt;"</f>
+      </c>
+      <c r="F136" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A136&amp;"' /&gt;"</f>
       </c>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C137" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C137" s="4">
+        <f>IF(ISNA(VLOOKUP(A137, D:D, 1, FALSE)), "null",A137)</f>
       </c>
       <c r="D137" s="1"/>
-      <c r="E137" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MC' /&gt;</v>
-      </c>
-      <c r="F137" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MC' /&gt;</v>
+      <c r="E137" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A137&amp;"' /&gt;"</f>
+      </c>
+      <c r="F137" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A137&amp;"' /&gt;"</f>
       </c>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C138" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C138" s="4">
+        <f>IF(ISNA(VLOOKUP(A138, D:D, 1, FALSE)), "null",A138)</f>
       </c>
       <c r="D138" s="1"/>
-      <c r="E138" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MD' /&gt;</v>
-      </c>
-      <c r="F138" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MD' /&gt;</v>
+      <c r="E138" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A138&amp;"' /&gt;"</f>
+      </c>
+      <c r="F138" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A138&amp;"' /&gt;"</f>
       </c>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C139" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C139" s="4">
+        <f>IF(ISNA(VLOOKUP(A139, D:D, 1, FALSE)), "null",A139)</f>
       </c>
       <c r="D139" s="1"/>
-      <c r="E139" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='ME' /&gt;</v>
-      </c>
-      <c r="F139" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='ME' /&gt;</v>
+      <c r="E139" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A139&amp;"' /&gt;"</f>
+      </c>
+      <c r="F139" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A139&amp;"' /&gt;"</f>
       </c>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C140" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C140" s="4">
+        <f>IF(ISNA(VLOOKUP(A140, D:D, 1, FALSE)), "null",A140)</f>
       </c>
       <c r="D140" s="1"/>
-      <c r="E140" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MF' /&gt;</v>
-      </c>
-      <c r="F140" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MF' /&gt;</v>
+      <c r="E140" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A140&amp;"' /&gt;"</f>
+      </c>
+      <c r="F140" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A140&amp;"' /&gt;"</f>
       </c>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C141" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C141" s="4">
+        <f>IF(ISNA(VLOOKUP(A141, D:D, 1, FALSE)), "null",A141)</f>
       </c>
       <c r="D141" s="1"/>
-      <c r="E141" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MG' /&gt;</v>
-      </c>
-      <c r="F141" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MG' /&gt;</v>
+      <c r="E141" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A141&amp;"' /&gt;"</f>
+      </c>
+      <c r="F141" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A141&amp;"' /&gt;"</f>
       </c>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C142" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C142" s="4">
+        <f>IF(ISNA(VLOOKUP(A142, D:D, 1, FALSE)), "null",A142)</f>
       </c>
       <c r="D142" s="1"/>
-      <c r="E142" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MH' /&gt;</v>
-      </c>
-      <c r="F142" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MH' /&gt;</v>
+      <c r="E142" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A142&amp;"' /&gt;"</f>
+      </c>
+      <c r="F142" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A142&amp;"' /&gt;"</f>
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C143" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C143" s="4">
+        <f>IF(ISNA(VLOOKUP(A143, D:D, 1, FALSE)), "null",A143)</f>
       </c>
       <c r="D143" s="1"/>
-      <c r="E143" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MK' /&gt;</v>
-      </c>
-      <c r="F143" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MK' /&gt;</v>
+      <c r="E143" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A143&amp;"' /&gt;"</f>
+      </c>
+      <c r="F143" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A143&amp;"' /&gt;"</f>
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C144" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C144" s="4">
+        <f>IF(ISNA(VLOOKUP(A144, D:D, 1, FALSE)), "null",A144)</f>
       </c>
       <c r="D144" s="1"/>
-      <c r="E144" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='ML' /&gt;</v>
-      </c>
-      <c r="F144" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='ML' /&gt;</v>
+      <c r="E144" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A144&amp;"' /&gt;"</f>
+      </c>
+      <c r="F144" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A144&amp;"' /&gt;"</f>
       </c>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C145" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C145" s="4">
+        <f>IF(ISNA(VLOOKUP(A145, D:D, 1, FALSE)), "null",A145)</f>
       </c>
       <c r="D145" s="1"/>
-      <c r="E145" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MM' /&gt;</v>
-      </c>
-      <c r="F145" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MM' /&gt;</v>
+      <c r="E145" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A145&amp;"' /&gt;"</f>
+      </c>
+      <c r="F145" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A145&amp;"' /&gt;"</f>
       </c>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C146" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C146" s="4">
+        <f>IF(ISNA(VLOOKUP(A146, D:D, 1, FALSE)), "null",A146)</f>
       </c>
       <c r="D146" s="1"/>
-      <c r="E146" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MN' /&gt;</v>
-      </c>
-      <c r="F146" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MN' /&gt;</v>
+      <c r="E146" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A146&amp;"' /&gt;"</f>
+      </c>
+      <c r="F146" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A146&amp;"' /&gt;"</f>
       </c>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C147" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>MO</v>
+      <c r="C147" s="4">
+        <f>IF(ISNA(VLOOKUP(A147, D:D, 1, FALSE)), "null",A147)</f>
       </c>
       <c r="D147" s="1"/>
-      <c r="E147" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MO' /&gt;</v>
-      </c>
-      <c r="F147" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MO' /&gt;</v>
+      <c r="E147" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A147&amp;"' /&gt;"</f>
+      </c>
+      <c r="F147" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A147&amp;"' /&gt;"</f>
       </c>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C148" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C148" s="4">
+        <f>IF(ISNA(VLOOKUP(A148, D:D, 1, FALSE)), "null",A148)</f>
       </c>
       <c r="D148" s="1"/>
-      <c r="E148" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MP' /&gt;</v>
-      </c>
-      <c r="F148" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MP' /&gt;</v>
+      <c r="E148" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A148&amp;"' /&gt;"</f>
+      </c>
+      <c r="F148" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A148&amp;"' /&gt;"</f>
       </c>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C149" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C149" s="4">
+        <f>IF(ISNA(VLOOKUP(A149, D:D, 1, FALSE)), "null",A149)</f>
       </c>
       <c r="D149" s="1"/>
-      <c r="E149" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MQ' /&gt;</v>
-      </c>
-      <c r="F149" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MQ' /&gt;</v>
+      <c r="E149" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A149&amp;"' /&gt;"</f>
+      </c>
+      <c r="F149" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A149&amp;"' /&gt;"</f>
       </c>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C150" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C150" s="4">
+        <f>IF(ISNA(VLOOKUP(A150, D:D, 1, FALSE)), "null",A150)</f>
       </c>
       <c r="D150" s="1"/>
-      <c r="E150" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MR' /&gt;</v>
-      </c>
-      <c r="F150" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MR' /&gt;</v>
+      <c r="E150" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A150&amp;"' /&gt;"</f>
+      </c>
+      <c r="F150" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A150&amp;"' /&gt;"</f>
       </c>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C151" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C151" s="4">
+        <f>IF(ISNA(VLOOKUP(A151, D:D, 1, FALSE)), "null",A151)</f>
       </c>
       <c r="D151" s="1"/>
-      <c r="E151" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MS' /&gt;</v>
-      </c>
-      <c r="F151" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MS' /&gt;</v>
+      <c r="E151" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A151&amp;"' /&gt;"</f>
+      </c>
+      <c r="F151" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A151&amp;"' /&gt;"</f>
       </c>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C152" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C152" s="4">
+        <f>IF(ISNA(VLOOKUP(A152, D:D, 1, FALSE)), "null",A152)</f>
       </c>
       <c r="D152" s="1"/>
-      <c r="E152" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MT' /&gt;</v>
-      </c>
-      <c r="F152" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MT' /&gt;</v>
+      <c r="E152" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A152&amp;"' /&gt;"</f>
+      </c>
+      <c r="F152" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A152&amp;"' /&gt;"</f>
       </c>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C153" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C153" s="4">
+        <f>IF(ISNA(VLOOKUP(A153, D:D, 1, FALSE)), "null",A153)</f>
       </c>
       <c r="D153" s="1"/>
-      <c r="E153" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MU' /&gt;</v>
-      </c>
-      <c r="F153" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MU' /&gt;</v>
+      <c r="E153" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A153&amp;"' /&gt;"</f>
+      </c>
+      <c r="F153" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A153&amp;"' /&gt;"</f>
       </c>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C154" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C154" s="4">
+        <f>IF(ISNA(VLOOKUP(A154, D:D, 1, FALSE)), "null",A154)</f>
       </c>
       <c r="D154" s="1"/>
-      <c r="E154" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MV' /&gt;</v>
-      </c>
-      <c r="F154" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MV' /&gt;</v>
+      <c r="E154" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A154&amp;"' /&gt;"</f>
+      </c>
+      <c r="F154" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A154&amp;"' /&gt;"</f>
       </c>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C155" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C155" s="4">
+        <f>IF(ISNA(VLOOKUP(A155, D:D, 1, FALSE)), "null",A155)</f>
       </c>
       <c r="D155" s="1"/>
-      <c r="E155" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MW' /&gt;</v>
-      </c>
-      <c r="F155" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MW' /&gt;</v>
+      <c r="E155" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A155&amp;"' /&gt;"</f>
+      </c>
+      <c r="F155" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A155&amp;"' /&gt;"</f>
       </c>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C156" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>MX</v>
+      <c r="C156" s="4">
+        <f>IF(ISNA(VLOOKUP(A156, D:D, 1, FALSE)), "null",A156)</f>
       </c>
       <c r="D156" s="1"/>
-      <c r="E156" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MX' /&gt;</v>
-      </c>
-      <c r="F156" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MX' /&gt;</v>
+      <c r="E156" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A156&amp;"' /&gt;"</f>
+      </c>
+      <c r="F156" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A156&amp;"' /&gt;"</f>
       </c>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C157" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>MY</v>
+      <c r="C157" s="4">
+        <f>IF(ISNA(VLOOKUP(A157, D:D, 1, FALSE)), "null",A157)</f>
       </c>
       <c r="D157" s="1"/>
-      <c r="E157" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MY' /&gt;</v>
-      </c>
-      <c r="F157" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MY' /&gt;</v>
+      <c r="E157" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A157&amp;"' /&gt;"</f>
+      </c>
+      <c r="F157" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A157&amp;"' /&gt;"</f>
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C158" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C158" s="4">
+        <f>IF(ISNA(VLOOKUP(A158, D:D, 1, FALSE)), "null",A158)</f>
       </c>
       <c r="D158" s="1"/>
-      <c r="E158" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='MZ' /&gt;</v>
-      </c>
-      <c r="F158" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='MZ' /&gt;</v>
+      <c r="E158" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A158&amp;"' /&gt;"</f>
+      </c>
+      <c r="F158" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A158&amp;"' /&gt;"</f>
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C159" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C159" s="4">
+        <f>IF(ISNA(VLOOKUP(A159, D:D, 1, FALSE)), "null",A159)</f>
       </c>
       <c r="D159" s="1"/>
-      <c r="E159" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='NA' /&gt;</v>
-      </c>
-      <c r="F159" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='NA' /&gt;</v>
+      <c r="E159" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A159&amp;"' /&gt;"</f>
+      </c>
+      <c r="F159" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A159&amp;"' /&gt;"</f>
       </c>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C160" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C160" s="4">
+        <f>IF(ISNA(VLOOKUP(A160, D:D, 1, FALSE)), "null",A160)</f>
       </c>
       <c r="D160" s="1"/>
-      <c r="E160" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='NC' /&gt;</v>
-      </c>
-      <c r="F160" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='NC' /&gt;</v>
+      <c r="E160" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A160&amp;"' /&gt;"</f>
+      </c>
+      <c r="F160" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A160&amp;"' /&gt;"</f>
       </c>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C161" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C161" s="4">
+        <f>IF(ISNA(VLOOKUP(A161, D:D, 1, FALSE)), "null",A161)</f>
       </c>
       <c r="D161" s="1"/>
-      <c r="E161" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='NE' /&gt;</v>
-      </c>
-      <c r="F161" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='NE' /&gt;</v>
+      <c r="E161" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A161&amp;"' /&gt;"</f>
+      </c>
+      <c r="F161" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A161&amp;"' /&gt;"</f>
       </c>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C162" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C162" s="4">
+        <f>IF(ISNA(VLOOKUP(A162, D:D, 1, FALSE)), "null",A162)</f>
       </c>
       <c r="D162" s="1"/>
-      <c r="E162" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='NF' /&gt;</v>
-      </c>
-      <c r="F162" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='NF' /&gt;</v>
+      <c r="E162" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A162&amp;"' /&gt;"</f>
+      </c>
+      <c r="F162" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A162&amp;"' /&gt;"</f>
       </c>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C163" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C163" s="4">
+        <f>IF(ISNA(VLOOKUP(A163, D:D, 1, FALSE)), "null",A163)</f>
       </c>
       <c r="D163" s="1"/>
-      <c r="E163" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='NG' /&gt;</v>
-      </c>
-      <c r="F163" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='NG' /&gt;</v>
+      <c r="E163" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A163&amp;"' /&gt;"</f>
+      </c>
+      <c r="F163" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A163&amp;"' /&gt;"</f>
       </c>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C164" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C164" s="4">
+        <f>IF(ISNA(VLOOKUP(A164, D:D, 1, FALSE)), "null",A164)</f>
       </c>
       <c r="D164" s="1"/>
-      <c r="E164" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='NI' /&gt;</v>
-      </c>
-      <c r="F164" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='NI' /&gt;</v>
+      <c r="E164" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A164&amp;"' /&gt;"</f>
+      </c>
+      <c r="F164" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A164&amp;"' /&gt;"</f>
       </c>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C165" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>NL</v>
+      <c r="C165" s="4">
+        <f>IF(ISNA(VLOOKUP(A165, D:D, 1, FALSE)), "null",A165)</f>
       </c>
       <c r="D165" s="1"/>
-      <c r="E165" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='NL' /&gt;</v>
-      </c>
-      <c r="F165" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='NL' /&gt;</v>
+      <c r="E165" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A165&amp;"' /&gt;"</f>
+      </c>
+      <c r="F165" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A165&amp;"' /&gt;"</f>
       </c>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C166" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+      <c r="C166" s="4">
+        <f>IF(ISNA(VLOOKUP(A166, D:D, 1, FALSE)), "null",A166)</f>
       </c>
       <c r="D166" s="1"/>
-      <c r="E166" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='NO' /&gt;</v>
-      </c>
-      <c r="F166" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='NO' /&gt;</v>
+      <c r="E166" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A166&amp;"' /&gt;"</f>
+      </c>
+      <c r="F166" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A166&amp;"' /&gt;"</f>
       </c>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3" t="s">
         <v>355</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C167" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C167" s="4">
+        <f>IF(ISNA(VLOOKUP(A167, D:D, 1, FALSE)), "null",A167)</f>
       </c>
       <c r="D167" s="1"/>
-      <c r="E167" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='NP' /&gt;</v>
-      </c>
-      <c r="F167" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='NP' /&gt;</v>
+      <c r="E167" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A167&amp;"' /&gt;"</f>
+      </c>
+      <c r="F167" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A167&amp;"' /&gt;"</f>
       </c>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C168" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C168" s="4">
+        <f>IF(ISNA(VLOOKUP(A168, D:D, 1, FALSE)), "null",A168)</f>
       </c>
       <c r="D168" s="1"/>
-      <c r="E168" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='NR' /&gt;</v>
-      </c>
-      <c r="F168" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='NR' /&gt;</v>
+      <c r="E168" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A168&amp;"' /&gt;"</f>
+      </c>
+      <c r="F168" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A168&amp;"' /&gt;"</f>
       </c>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C169" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C169" s="4">
+        <f>IF(ISNA(VLOOKUP(A169, D:D, 1, FALSE)), "null",A169)</f>
       </c>
       <c r="D169" s="1"/>
-      <c r="E169" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='NU' /&gt;</v>
-      </c>
-      <c r="F169" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='NU' /&gt;</v>
+      <c r="E169" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A169&amp;"' /&gt;"</f>
+      </c>
+      <c r="F169" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A169&amp;"' /&gt;"</f>
       </c>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C170" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>NZ</v>
+      <c r="C170" s="4">
+        <f>IF(ISNA(VLOOKUP(A170, D:D, 1, FALSE)), "null",A170)</f>
       </c>
       <c r="D170" s="1"/>
-      <c r="E170" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='NZ' /&gt;</v>
-      </c>
-      <c r="F170" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='NZ' /&gt;</v>
+      <c r="E170" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A170&amp;"' /&gt;"</f>
+      </c>
+      <c r="F170" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A170&amp;"' /&gt;"</f>
       </c>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3" t="s">
         <v>362</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C171" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C171" s="4">
+        <f>IF(ISNA(VLOOKUP(A171, D:D, 1, FALSE)), "null",A171)</f>
       </c>
       <c r="D171" s="1"/>
-      <c r="E171" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='OM' /&gt;</v>
-      </c>
-      <c r="F171" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='OM' /&gt;</v>
+      <c r="E171" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A171&amp;"' /&gt;"</f>
+      </c>
+      <c r="F171" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A171&amp;"' /&gt;"</f>
       </c>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3" t="s">
         <v>364</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C172" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C172" s="4">
+        <f>IF(ISNA(VLOOKUP(A172, D:D, 1, FALSE)), "null",A172)</f>
       </c>
       <c r="D172" s="1"/>
-      <c r="E172" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='PA' /&gt;</v>
-      </c>
-      <c r="F172" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='PA' /&gt;</v>
+      <c r="E172" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A172&amp;"' /&gt;"</f>
+      </c>
+      <c r="F172" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A172&amp;"' /&gt;"</f>
       </c>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3" t="s">
         <v>366</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C173" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C173" s="4">
+        <f>IF(ISNA(VLOOKUP(A173, D:D, 1, FALSE)), "null",A173)</f>
       </c>
       <c r="D173" s="1"/>
-      <c r="E173" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='PE' /&gt;</v>
-      </c>
-      <c r="F173" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='PE' /&gt;</v>
+      <c r="E173" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A173&amp;"' /&gt;"</f>
+      </c>
+      <c r="F173" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A173&amp;"' /&gt;"</f>
       </c>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3" t="s">
         <v>368</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C174" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C174" s="4">
+        <f>IF(ISNA(VLOOKUP(A174, D:D, 1, FALSE)), "null",A174)</f>
       </c>
       <c r="D174" s="1"/>
-      <c r="E174" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='PF' /&gt;</v>
-      </c>
-      <c r="F174" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='PF' /&gt;</v>
+      <c r="E174" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A174&amp;"' /&gt;"</f>
+      </c>
+      <c r="F174" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A174&amp;"' /&gt;"</f>
       </c>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3" t="s">
         <v>370</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C175" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C175" s="4">
+        <f>IF(ISNA(VLOOKUP(A175, D:D, 1, FALSE)), "null",A175)</f>
       </c>
       <c r="D175" s="1"/>
-      <c r="E175" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='PG' /&gt;</v>
-      </c>
-      <c r="F175" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='PG' /&gt;</v>
+      <c r="E175" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A175&amp;"' /&gt;"</f>
+      </c>
+      <c r="F175" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A175&amp;"' /&gt;"</f>
       </c>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C176" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PH</v>
+      <c r="C176" s="4">
+        <f>IF(ISNA(VLOOKUP(A176, D:D, 1, FALSE)), "null",A176)</f>
       </c>
       <c r="D176" s="1"/>
-      <c r="E176" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='PH' /&gt;</v>
-      </c>
-      <c r="F176" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='PH' /&gt;</v>
+      <c r="E176" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A176&amp;"' /&gt;"</f>
+      </c>
+      <c r="F176" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A176&amp;"' /&gt;"</f>
       </c>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C177" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PK</v>
+      <c r="C177" s="4">
+        <f>IF(ISNA(VLOOKUP(A177, D:D, 1, FALSE)), "null",A177)</f>
       </c>
       <c r="D177" s="1"/>
-      <c r="E177" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='PK' /&gt;</v>
-      </c>
-      <c r="F177" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='PK' /&gt;</v>
+      <c r="E177" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A177&amp;"' /&gt;"</f>
+      </c>
+      <c r="F177" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A177&amp;"' /&gt;"</f>
       </c>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C178" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PL</v>
+      <c r="C178" s="4">
+        <f>IF(ISNA(VLOOKUP(A178, D:D, 1, FALSE)), "null",A178)</f>
       </c>
       <c r="D178" s="1"/>
-      <c r="E178" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='PL' /&gt;</v>
-      </c>
-      <c r="F178" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='PL' /&gt;</v>
+      <c r="E178" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A178&amp;"' /&gt;"</f>
+      </c>
+      <c r="F178" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A178&amp;"' /&gt;"</f>
       </c>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C179" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C179" s="4">
+        <f>IF(ISNA(VLOOKUP(A179, D:D, 1, FALSE)), "null",A179)</f>
       </c>
       <c r="D179" s="1"/>
-      <c r="E179" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='PM' /&gt;</v>
-      </c>
-      <c r="F179" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='PM' /&gt;</v>
+      <c r="E179" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A179&amp;"' /&gt;"</f>
+      </c>
+      <c r="F179" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A179&amp;"' /&gt;"</f>
       </c>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C180" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C180" s="4">
+        <f>IF(ISNA(VLOOKUP(A180, D:D, 1, FALSE)), "null",A180)</f>
       </c>
       <c r="D180" s="1"/>
-      <c r="E180" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='PN' /&gt;</v>
-      </c>
-      <c r="F180" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='PN' /&gt;</v>
+      <c r="E180" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A180&amp;"' /&gt;"</f>
+      </c>
+      <c r="F180" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A180&amp;"' /&gt;"</f>
       </c>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3" t="s">
         <v>379</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C181" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C181" s="4">
+        <f>IF(ISNA(VLOOKUP(A181, D:D, 1, FALSE)), "null",A181)</f>
       </c>
       <c r="D181" s="1"/>
-      <c r="E181" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='PR' /&gt;</v>
-      </c>
-      <c r="F181" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='PR' /&gt;</v>
+      <c r="E181" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A181&amp;"' /&gt;"</f>
+      </c>
+      <c r="F181" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A181&amp;"' /&gt;"</f>
       </c>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C182" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C182" s="4">
+        <f>IF(ISNA(VLOOKUP(A182, D:D, 1, FALSE)), "null",A182)</f>
       </c>
       <c r="D182" s="1"/>
-      <c r="E182" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='PS' /&gt;</v>
-      </c>
-      <c r="F182" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='PS' /&gt;</v>
+      <c r="E182" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A182&amp;"' /&gt;"</f>
+      </c>
+      <c r="F182" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A182&amp;"' /&gt;"</f>
       </c>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C183" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PT</v>
+      <c r="C183" s="4">
+        <f>IF(ISNA(VLOOKUP(A183, D:D, 1, FALSE)), "null",A183)</f>
       </c>
       <c r="D183" s="1"/>
-      <c r="E183" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='PT' /&gt;</v>
-      </c>
-      <c r="F183" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='PT' /&gt;</v>
+      <c r="E183" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A183&amp;"' /&gt;"</f>
+      </c>
+      <c r="F183" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A183&amp;"' /&gt;"</f>
       </c>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="3" t="s">
         <v>384</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C184" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C184" s="4">
+        <f>IF(ISNA(VLOOKUP(A184, D:D, 1, FALSE)), "null",A184)</f>
       </c>
       <c r="D184" s="1"/>
-      <c r="E184" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='PW' /&gt;</v>
-      </c>
-      <c r="F184" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='PW' /&gt;</v>
+      <c r="E184" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A184&amp;"' /&gt;"</f>
+      </c>
+      <c r="F184" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A184&amp;"' /&gt;"</f>
       </c>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3" t="s">
         <v>386</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C185" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C185" s="4">
+        <f>IF(ISNA(VLOOKUP(A185, D:D, 1, FALSE)), "null",A185)</f>
       </c>
       <c r="D185" s="1"/>
-      <c r="E185" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='PY' /&gt;</v>
-      </c>
-      <c r="F185" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='PY' /&gt;</v>
+      <c r="E185" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A185&amp;"' /&gt;"</f>
+      </c>
+      <c r="F185" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A185&amp;"' /&gt;"</f>
       </c>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3" t="s">
         <v>388</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C186" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C186" s="4">
+        <f>IF(ISNA(VLOOKUP(A186, D:D, 1, FALSE)), "null",A186)</f>
       </c>
       <c r="D186" s="1"/>
-      <c r="E186" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='QA' /&gt;</v>
-      </c>
-      <c r="F186" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='QA' /&gt;</v>
+      <c r="E186" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A186&amp;"' /&gt;"</f>
+      </c>
+      <c r="F186" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A186&amp;"' /&gt;"</f>
       </c>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3" t="s">
         <v>390</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C187" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C187" s="4">
+        <f>IF(ISNA(VLOOKUP(A187, D:D, 1, FALSE)), "null",A187)</f>
       </c>
       <c r="D187" s="1"/>
-      <c r="E187" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='RE' /&gt;</v>
-      </c>
-      <c r="F187" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='RE' /&gt;</v>
+      <c r="E187" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A187&amp;"' /&gt;"</f>
+      </c>
+      <c r="F187" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A187&amp;"' /&gt;"</f>
       </c>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C188" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>RO</v>
+      <c r="C188" s="4">
+        <f>IF(ISNA(VLOOKUP(A188, D:D, 1, FALSE)), "null",A188)</f>
       </c>
       <c r="D188" s="1"/>
-      <c r="E188" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='RO' /&gt;</v>
-      </c>
-      <c r="F188" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='RO' /&gt;</v>
+      <c r="E188" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A188&amp;"' /&gt;"</f>
+      </c>
+      <c r="F188" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A188&amp;"' /&gt;"</f>
       </c>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C189" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C189" s="4">
+        <f>IF(ISNA(VLOOKUP(A189, D:D, 1, FALSE)), "null",A189)</f>
       </c>
       <c r="D189" s="1"/>
-      <c r="E189" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='RS' /&gt;</v>
-      </c>
-      <c r="F189" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='RS' /&gt;</v>
+      <c r="E189" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A189&amp;"' /&gt;"</f>
+      </c>
+      <c r="F189" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A189&amp;"' /&gt;"</f>
       </c>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C190" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>RU</v>
+      <c r="C190" s="4">
+        <f>IF(ISNA(VLOOKUP(A190, D:D, 1, FALSE)), "null",A190)</f>
       </c>
       <c r="D190" s="1"/>
-      <c r="E190" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='RU' /&gt;</v>
-      </c>
-      <c r="F190" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='RU' /&gt;</v>
+      <c r="E190" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A190&amp;"' /&gt;"</f>
+      </c>
+      <c r="F190" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A190&amp;"' /&gt;"</f>
       </c>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C191" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C191" s="4">
+        <f>IF(ISNA(VLOOKUP(A191, D:D, 1, FALSE)), "null",A191)</f>
       </c>
       <c r="D191" s="1"/>
-      <c r="E191" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='RW' /&gt;</v>
-      </c>
-      <c r="F191" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='RW' /&gt;</v>
+      <c r="E191" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A191&amp;"' /&gt;"</f>
+      </c>
+      <c r="F191" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A191&amp;"' /&gt;"</f>
       </c>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C192" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SA</v>
+      <c r="C192" s="4">
+        <f>IF(ISNA(VLOOKUP(A192, D:D, 1, FALSE)), "null",A192)</f>
       </c>
       <c r="D192" s="1"/>
-      <c r="E192" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SA' /&gt;</v>
-      </c>
-      <c r="F192" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SA' /&gt;</v>
+      <c r="E192" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A192&amp;"' /&gt;"</f>
+      </c>
+      <c r="F192" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A192&amp;"' /&gt;"</f>
       </c>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C193" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C193" s="4">
+        <f>IF(ISNA(VLOOKUP(A193, D:D, 1, FALSE)), "null",A193)</f>
       </c>
       <c r="D193" s="1"/>
-      <c r="E193" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SB' /&gt;</v>
-      </c>
-      <c r="F193" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SB' /&gt;</v>
+      <c r="E193" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A193&amp;"' /&gt;"</f>
+      </c>
+      <c r="F193" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A193&amp;"' /&gt;"</f>
       </c>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C194" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="C194" s="4">
+        <f>IF(ISNA(VLOOKUP(A194, D:D, 1, FALSE)), "null",A194)</f>
       </c>
       <c r="D194" s="1"/>
-      <c r="E194" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SC' /&gt;</v>
-      </c>
-      <c r="F194" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SC' /&gt;</v>
+      <c r="E194" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A194&amp;"' /&gt;"</f>
+      </c>
+      <c r="F194" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A194&amp;"' /&gt;"</f>
       </c>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C195" s="1" t="str">
-        <f t="shared" ref="C195:C249" si="9">IF(ISNA(VLOOKUP(A195, D:D, 1, FALSE)), "null",A195)</f>
-        <v>null</v>
+      <c r="C195" s="4">
+        <f>IF(ISNA(VLOOKUP(A195, D:D, 1, FALSE)), "null",A195)</f>
       </c>
       <c r="D195" s="1"/>
-      <c r="E195" s="1" t="str">
-        <f t="shared" ref="E195:E249" si="10">"    &lt;Match status='yes' country='"&amp;A195&amp;"' /&gt;"</f>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SD' /&gt;</v>
-      </c>
-      <c r="F195" s="1" t="str">
-        <f t="shared" ref="F195:F249" si="11">"    &lt;Match status='never' country='"&amp;A195&amp;"' /&gt;"</f>
-        <v xml:space="preserve">    &lt;Match status='never' country='SD' /&gt;</v>
+      <c r="E195" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A195&amp;"' /&gt;"</f>
+      </c>
+      <c r="F195" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A195&amp;"' /&gt;"</f>
       </c>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C196" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>SE</v>
+      <c r="C196" s="4">
+        <f>IF(ISNA(VLOOKUP(A196, D:D, 1, FALSE)), "null",A196)</f>
       </c>
       <c r="D196" s="1"/>
-      <c r="E196" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SE' /&gt;</v>
-      </c>
-      <c r="F196" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SE' /&gt;</v>
+      <c r="E196" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A196&amp;"' /&gt;"</f>
+      </c>
+      <c r="F196" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A196&amp;"' /&gt;"</f>
       </c>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C197" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>SG</v>
+      <c r="C197" s="4">
+        <f>IF(ISNA(VLOOKUP(A197, D:D, 1, FALSE)), "null",A197)</f>
       </c>
       <c r="D197" s="1"/>
-      <c r="E197" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SG' /&gt;</v>
-      </c>
-      <c r="F197" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SG' /&gt;</v>
+      <c r="E197" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A197&amp;"' /&gt;"</f>
+      </c>
+      <c r="F197" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A197&amp;"' /&gt;"</f>
       </c>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C198" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C198" s="4">
+        <f>IF(ISNA(VLOOKUP(A198, D:D, 1, FALSE)), "null",A198)</f>
       </c>
       <c r="D198" s="1"/>
-      <c r="E198" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SH' /&gt;</v>
-      </c>
-      <c r="F198" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SH' /&gt;</v>
+      <c r="E198" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A198&amp;"' /&gt;"</f>
+      </c>
+      <c r="F198" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A198&amp;"' /&gt;"</f>
       </c>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C199" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C199" s="4">
+        <f>IF(ISNA(VLOOKUP(A199, D:D, 1, FALSE)), "null",A199)</f>
       </c>
       <c r="D199" s="1"/>
-      <c r="E199" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SI' /&gt;</v>
-      </c>
-      <c r="F199" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SI' /&gt;</v>
+      <c r="E199" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A199&amp;"' /&gt;"</f>
+      </c>
+      <c r="F199" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A199&amp;"' /&gt;"</f>
       </c>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C200" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C200" s="4">
+        <f>IF(ISNA(VLOOKUP(A200, D:D, 1, FALSE)), "null",A200)</f>
       </c>
       <c r="D200" s="1"/>
-      <c r="E200" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SJ' /&gt;</v>
-      </c>
-      <c r="F200" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SJ' /&gt;</v>
+      <c r="E200" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A200&amp;"' /&gt;"</f>
+      </c>
+      <c r="F200" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A200&amp;"' /&gt;"</f>
       </c>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3" t="s">
         <v>413</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C201" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C201" s="4">
+        <f>IF(ISNA(VLOOKUP(A201, D:D, 1, FALSE)), "null",A201)</f>
       </c>
       <c r="D201" s="1"/>
-      <c r="E201" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SK' /&gt;</v>
-      </c>
-      <c r="F201" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SK' /&gt;</v>
+      <c r="E201" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A201&amp;"' /&gt;"</f>
+      </c>
+      <c r="F201" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A201&amp;"' /&gt;"</f>
       </c>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C202" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C202" s="4">
+        <f>IF(ISNA(VLOOKUP(A202, D:D, 1, FALSE)), "null",A202)</f>
       </c>
       <c r="D202" s="1"/>
-      <c r="E202" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SL' /&gt;</v>
-      </c>
-      <c r="F202" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SL' /&gt;</v>
+      <c r="E202" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A202&amp;"' /&gt;"</f>
+      </c>
+      <c r="F202" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A202&amp;"' /&gt;"</f>
       </c>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C203" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C203" s="4">
+        <f>IF(ISNA(VLOOKUP(A203, D:D, 1, FALSE)), "null",A203)</f>
       </c>
       <c r="D203" s="1"/>
-      <c r="E203" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SM' /&gt;</v>
-      </c>
-      <c r="F203" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SM' /&gt;</v>
+      <c r="E203" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A203&amp;"' /&gt;"</f>
+      </c>
+      <c r="F203" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A203&amp;"' /&gt;"</f>
       </c>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C204" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C204" s="4">
+        <f>IF(ISNA(VLOOKUP(A204, D:D, 1, FALSE)), "null",A204)</f>
       </c>
       <c r="D204" s="1"/>
-      <c r="E204" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SN' /&gt;</v>
-      </c>
-      <c r="F204" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SN' /&gt;</v>
+      <c r="E204" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A204&amp;"' /&gt;"</f>
+      </c>
+      <c r="F204" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A204&amp;"' /&gt;"</f>
       </c>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3" t="s">
         <v>421</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C205" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C205" s="4">
+        <f>IF(ISNA(VLOOKUP(A205, D:D, 1, FALSE)), "null",A205)</f>
       </c>
       <c r="D205" s="1"/>
-      <c r="E205" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SO' /&gt;</v>
-      </c>
-      <c r="F205" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SO' /&gt;</v>
+      <c r="E205" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A205&amp;"' /&gt;"</f>
+      </c>
+      <c r="F205" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A205&amp;"' /&gt;"</f>
       </c>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3" t="s">
         <v>423</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C206" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C206" s="4">
+        <f>IF(ISNA(VLOOKUP(A206, D:D, 1, FALSE)), "null",A206)</f>
       </c>
       <c r="D206" s="1"/>
-      <c r="E206" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SR' /&gt;</v>
-      </c>
-      <c r="F206" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SR' /&gt;</v>
+      <c r="E206" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A206&amp;"' /&gt;"</f>
+      </c>
+      <c r="F206" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A206&amp;"' /&gt;"</f>
       </c>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C207" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C207" s="4">
+        <f>IF(ISNA(VLOOKUP(A207, D:D, 1, FALSE)), "null",A207)</f>
       </c>
       <c r="D207" s="1"/>
-      <c r="E207" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SS' /&gt;</v>
-      </c>
-      <c r="F207" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SS' /&gt;</v>
+      <c r="E207" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A207&amp;"' /&gt;"</f>
+      </c>
+      <c r="F207" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A207&amp;"' /&gt;"</f>
       </c>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3" t="s">
         <v>427</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C208" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C208" s="4">
+        <f>IF(ISNA(VLOOKUP(A208, D:D, 1, FALSE)), "null",A208)</f>
       </c>
       <c r="D208" s="1"/>
-      <c r="E208" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='ST' /&gt;</v>
-      </c>
-      <c r="F208" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='ST' /&gt;</v>
+      <c r="E208" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A208&amp;"' /&gt;"</f>
+      </c>
+      <c r="F208" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A208&amp;"' /&gt;"</f>
       </c>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3" t="s">
         <v>429</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C209" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C209" s="4">
+        <f>IF(ISNA(VLOOKUP(A209, D:D, 1, FALSE)), "null",A209)</f>
       </c>
       <c r="D209" s="1"/>
-      <c r="E209" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SV' /&gt;</v>
-      </c>
-      <c r="F209" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SV' /&gt;</v>
+      <c r="E209" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A209&amp;"' /&gt;"</f>
+      </c>
+      <c r="F209" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A209&amp;"' /&gt;"</f>
       </c>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="3" t="s">
         <v>431</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C210" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C210" s="4">
+        <f>IF(ISNA(VLOOKUP(A210, D:D, 1, FALSE)), "null",A210)</f>
       </c>
       <c r="D210" s="1"/>
-      <c r="E210" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SX' /&gt;</v>
-      </c>
-      <c r="F210" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SX' /&gt;</v>
+      <c r="E210" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A210&amp;"' /&gt;"</f>
+      </c>
+      <c r="F210" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A210&amp;"' /&gt;"</f>
       </c>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3" t="s">
         <v>433</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C211" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C211" s="4">
+        <f>IF(ISNA(VLOOKUP(A211, D:D, 1, FALSE)), "null",A211)</f>
       </c>
       <c r="D211" s="1"/>
-      <c r="E211" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SY' /&gt;</v>
-      </c>
-      <c r="F211" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SY' /&gt;</v>
+      <c r="E211" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A211&amp;"' /&gt;"</f>
+      </c>
+      <c r="F211" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A211&amp;"' /&gt;"</f>
       </c>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3" t="s">
         <v>435</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C212" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C212" s="4">
+        <f>IF(ISNA(VLOOKUP(A212, D:D, 1, FALSE)), "null",A212)</f>
       </c>
       <c r="D212" s="1"/>
-      <c r="E212" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='SZ' /&gt;</v>
-      </c>
-      <c r="F212" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='SZ' /&gt;</v>
+      <c r="E212" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A212&amp;"' /&gt;"</f>
+      </c>
+      <c r="F212" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A212&amp;"' /&gt;"</f>
       </c>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="3" t="s">
         <v>437</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C213" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C213" s="4">
+        <f>IF(ISNA(VLOOKUP(A213, D:D, 1, FALSE)), "null",A213)</f>
       </c>
       <c r="D213" s="1"/>
-      <c r="E213" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TC' /&gt;</v>
-      </c>
-      <c r="F213" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TC' /&gt;</v>
+      <c r="E213" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A213&amp;"' /&gt;"</f>
+      </c>
+      <c r="F213" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A213&amp;"' /&gt;"</f>
       </c>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C214" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C214" s="4">
+        <f>IF(ISNA(VLOOKUP(A214, D:D, 1, FALSE)), "null",A214)</f>
       </c>
       <c r="D214" s="1"/>
-      <c r="E214" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TD' /&gt;</v>
-      </c>
-      <c r="F214" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TD' /&gt;</v>
+      <c r="E214" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A214&amp;"' /&gt;"</f>
+      </c>
+      <c r="F214" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A214&amp;"' /&gt;"</f>
       </c>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C215" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C215" s="4">
+        <f>IF(ISNA(VLOOKUP(A215, D:D, 1, FALSE)), "null",A215)</f>
       </c>
       <c r="D215" s="1"/>
-      <c r="E215" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TF' /&gt;</v>
-      </c>
-      <c r="F215" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TF' /&gt;</v>
+      <c r="E215" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A215&amp;"' /&gt;"</f>
+      </c>
+      <c r="F215" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A215&amp;"' /&gt;"</f>
       </c>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C216" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C216" s="4">
+        <f>IF(ISNA(VLOOKUP(A216, D:D, 1, FALSE)), "null",A216)</f>
       </c>
       <c r="D216" s="1"/>
-      <c r="E216" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TG' /&gt;</v>
-      </c>
-      <c r="F216" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TG' /&gt;</v>
+      <c r="E216" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A216&amp;"' /&gt;"</f>
+      </c>
+      <c r="F216" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A216&amp;"' /&gt;"</f>
       </c>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C217" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TH</v>
+      <c r="C217" s="4">
+        <f>IF(ISNA(VLOOKUP(A217, D:D, 1, FALSE)), "null",A217)</f>
       </c>
       <c r="D217" s="1"/>
-      <c r="E217" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TH' /&gt;</v>
-      </c>
-      <c r="F217" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TH' /&gt;</v>
+      <c r="E217" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A217&amp;"' /&gt;"</f>
+      </c>
+      <c r="F217" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A217&amp;"' /&gt;"</f>
       </c>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="3" t="s">
         <v>446</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C218" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C218" s="4">
+        <f>IF(ISNA(VLOOKUP(A218, D:D, 1, FALSE)), "null",A218)</f>
       </c>
       <c r="D218" s="1"/>
-      <c r="E218" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TJ' /&gt;</v>
-      </c>
-      <c r="F218" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TJ' /&gt;</v>
+      <c r="E218" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A218&amp;"' /&gt;"</f>
+      </c>
+      <c r="F218" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A218&amp;"' /&gt;"</f>
       </c>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C219" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C219" s="4">
+        <f>IF(ISNA(VLOOKUP(A219, D:D, 1, FALSE)), "null",A219)</f>
       </c>
       <c r="D219" s="1"/>
-      <c r="E219" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TK' /&gt;</v>
-      </c>
-      <c r="F219" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TK' /&gt;</v>
+      <c r="E219" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A219&amp;"' /&gt;"</f>
+      </c>
+      <c r="F219" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A219&amp;"' /&gt;"</f>
       </c>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C220" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C220" s="4">
+        <f>IF(ISNA(VLOOKUP(A220, D:D, 1, FALSE)), "null",A220)</f>
       </c>
       <c r="D220" s="1"/>
-      <c r="E220" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TL' /&gt;</v>
-      </c>
-      <c r="F220" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TL' /&gt;</v>
+      <c r="E220" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A220&amp;"' /&gt;"</f>
+      </c>
+      <c r="F220" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A220&amp;"' /&gt;"</f>
       </c>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C221" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C221" s="4">
+        <f>IF(ISNA(VLOOKUP(A221, D:D, 1, FALSE)), "null",A221)</f>
       </c>
       <c r="D221" s="1"/>
-      <c r="E221" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TM' /&gt;</v>
-      </c>
-      <c r="F221" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TM' /&gt;</v>
+      <c r="E221" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A221&amp;"' /&gt;"</f>
+      </c>
+      <c r="F221" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A221&amp;"' /&gt;"</f>
       </c>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="3" t="s">
         <v>454</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C222" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C222" s="4">
+        <f>IF(ISNA(VLOOKUP(A222, D:D, 1, FALSE)), "null",A222)</f>
       </c>
       <c r="D222" s="1"/>
-      <c r="E222" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TN' /&gt;</v>
-      </c>
-      <c r="F222" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TN' /&gt;</v>
+      <c r="E222" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A222&amp;"' /&gt;"</f>
+      </c>
+      <c r="F222" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A222&amp;"' /&gt;"</f>
       </c>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="3" t="s">
         <v>456</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C223" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C223" s="4">
+        <f>IF(ISNA(VLOOKUP(A223, D:D, 1, FALSE)), "null",A223)</f>
       </c>
       <c r="D223" s="1"/>
-      <c r="E223" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TO' /&gt;</v>
-      </c>
-      <c r="F223" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TO' /&gt;</v>
+      <c r="E223" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A223&amp;"' /&gt;"</f>
+      </c>
+      <c r="F223" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A223&amp;"' /&gt;"</f>
       </c>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C224" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TR</v>
+      <c r="C224" s="4">
+        <f>IF(ISNA(VLOOKUP(A224, D:D, 1, FALSE)), "null",A224)</f>
       </c>
       <c r="D224" s="1"/>
-      <c r="E224" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TR' /&gt;</v>
-      </c>
-      <c r="F224" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TR' /&gt;</v>
+      <c r="E224" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A224&amp;"' /&gt;"</f>
+      </c>
+      <c r="F224" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A224&amp;"' /&gt;"</f>
       </c>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C225" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C225" s="4">
+        <f>IF(ISNA(VLOOKUP(A225, D:D, 1, FALSE)), "null",A225)</f>
       </c>
       <c r="D225" s="1"/>
-      <c r="E225" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TT' /&gt;</v>
-      </c>
-      <c r="F225" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TT' /&gt;</v>
+      <c r="E225" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A225&amp;"' /&gt;"</f>
+      </c>
+      <c r="F225" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A225&amp;"' /&gt;"</f>
       </c>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="3" t="s">
         <v>461</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C226" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C226" s="4">
+        <f>IF(ISNA(VLOOKUP(A226, D:D, 1, FALSE)), "null",A226)</f>
       </c>
       <c r="D226" s="1"/>
-      <c r="E226" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TV' /&gt;</v>
-      </c>
-      <c r="F226" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TV' /&gt;</v>
+      <c r="E226" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A226&amp;"' /&gt;"</f>
+      </c>
+      <c r="F226" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A226&amp;"' /&gt;"</f>
       </c>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C227" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TW</v>
+      <c r="C227" s="4">
+        <f>IF(ISNA(VLOOKUP(A227, D:D, 1, FALSE)), "null",A227)</f>
       </c>
       <c r="D227" s="1"/>
-      <c r="E227" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TW' /&gt;</v>
-      </c>
-      <c r="F227" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TW' /&gt;</v>
+      <c r="E227" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A227&amp;"' /&gt;"</f>
+      </c>
+      <c r="F227" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A227&amp;"' /&gt;"</f>
       </c>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="3" t="s">
         <v>464</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C228" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C228" s="4">
+        <f>IF(ISNA(VLOOKUP(A228, D:D, 1, FALSE)), "null",A228)</f>
       </c>
       <c r="D228" s="1"/>
-      <c r="E228" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='TZ' /&gt;</v>
-      </c>
-      <c r="F228" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='TZ' /&gt;</v>
+      <c r="E228" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A228&amp;"' /&gt;"</f>
+      </c>
+      <c r="F228" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A228&amp;"' /&gt;"</f>
       </c>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C229" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>UA</v>
+      <c r="C229" s="4">
+        <f>IF(ISNA(VLOOKUP(A229, D:D, 1, FALSE)), "null",A229)</f>
       </c>
       <c r="D229" s="1"/>
-      <c r="E229" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='UA' /&gt;</v>
-      </c>
-      <c r="F229" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='UA' /&gt;</v>
+      <c r="E229" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A229&amp;"' /&gt;"</f>
+      </c>
+      <c r="F229" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A229&amp;"' /&gt;"</f>
       </c>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="3" t="s">
         <v>467</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C230" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C230" s="4">
+        <f>IF(ISNA(VLOOKUP(A230, D:D, 1, FALSE)), "null",A230)</f>
       </c>
       <c r="D230" s="1"/>
-      <c r="E230" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='UG' /&gt;</v>
-      </c>
-      <c r="F230" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='UG' /&gt;</v>
+      <c r="E230" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A230&amp;"' /&gt;"</f>
+      </c>
+      <c r="F230" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A230&amp;"' /&gt;"</f>
       </c>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="3" t="s">
         <v>469</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C231" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C231" s="4">
+        <f>IF(ISNA(VLOOKUP(A231, D:D, 1, FALSE)), "null",A231)</f>
       </c>
       <c r="D231" s="1"/>
-      <c r="E231" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='UM' /&gt;</v>
-      </c>
-      <c r="F231" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='UM' /&gt;</v>
+      <c r="E231" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A231&amp;"' /&gt;"</f>
+      </c>
+      <c r="F231" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A231&amp;"' /&gt;"</f>
       </c>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C232" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>US</v>
+      <c r="C232" s="4">
+        <f>IF(ISNA(VLOOKUP(A232, D:D, 1, FALSE)), "null",A232)</f>
       </c>
       <c r="D232" s="1"/>
-      <c r="E232" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='US' /&gt;</v>
-      </c>
-      <c r="F232" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='US' /&gt;</v>
+      <c r="E232" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A232&amp;"' /&gt;"</f>
+      </c>
+      <c r="F232" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A232&amp;"' /&gt;"</f>
       </c>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="3" t="s">
         <v>472</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C233" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C233" s="4">
+        <f>IF(ISNA(VLOOKUP(A233, D:D, 1, FALSE)), "null",A233)</f>
       </c>
       <c r="D233" s="1"/>
-      <c r="E233" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='UY' /&gt;</v>
-      </c>
-      <c r="F233" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='UY' /&gt;</v>
+      <c r="E233" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A233&amp;"' /&gt;"</f>
+      </c>
+      <c r="F233" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A233&amp;"' /&gt;"</f>
       </c>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C234" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C234" s="4">
+        <f>IF(ISNA(VLOOKUP(A234, D:D, 1, FALSE)), "null",A234)</f>
       </c>
       <c r="D234" s="1"/>
-      <c r="E234" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='UZ' /&gt;</v>
-      </c>
-      <c r="F234" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='UZ' /&gt;</v>
+      <c r="E234" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A234&amp;"' /&gt;"</f>
+      </c>
+      <c r="F234" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A234&amp;"' /&gt;"</f>
       </c>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="3" t="s">
         <v>476</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C235" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C235" s="4">
+        <f>IF(ISNA(VLOOKUP(A235, D:D, 1, FALSE)), "null",A235)</f>
       </c>
       <c r="D235" s="1"/>
-      <c r="E235" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='VA' /&gt;</v>
-      </c>
-      <c r="F235" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='VA' /&gt;</v>
+      <c r="E235" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A235&amp;"' /&gt;"</f>
+      </c>
+      <c r="F235" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A235&amp;"' /&gt;"</f>
       </c>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="3" t="s">
         <v>478</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C236" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C236" s="4">
+        <f>IF(ISNA(VLOOKUP(A236, D:D, 1, FALSE)), "null",A236)</f>
       </c>
       <c r="D236" s="1"/>
-      <c r="E236" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='VC' /&gt;</v>
-      </c>
-      <c r="F236" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='VC' /&gt;</v>
+      <c r="E236" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A236&amp;"' /&gt;"</f>
+      </c>
+      <c r="F236" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A236&amp;"' /&gt;"</f>
       </c>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C237" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C237" s="4">
+        <f>IF(ISNA(VLOOKUP(A237, D:D, 1, FALSE)), "null",A237)</f>
       </c>
       <c r="D237" s="1"/>
-      <c r="E237" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='VE' /&gt;</v>
-      </c>
-      <c r="F237" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='VE' /&gt;</v>
+      <c r="E237" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A237&amp;"' /&gt;"</f>
+      </c>
+      <c r="F237" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A237&amp;"' /&gt;"</f>
       </c>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C238" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C238" s="4">
+        <f>IF(ISNA(VLOOKUP(A238, D:D, 1, FALSE)), "null",A238)</f>
       </c>
       <c r="D238" s="1"/>
-      <c r="E238" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='VG' /&gt;</v>
-      </c>
-      <c r="F238" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='VG' /&gt;</v>
+      <c r="E238" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A238&amp;"' /&gt;"</f>
+      </c>
+      <c r="F238" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A238&amp;"' /&gt;"</f>
       </c>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="3" t="s">
         <v>484</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C239" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C239" s="4">
+        <f>IF(ISNA(VLOOKUP(A239, D:D, 1, FALSE)), "null",A239)</f>
       </c>
       <c r="D239" s="1"/>
-      <c r="E239" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='VI' /&gt;</v>
-      </c>
-      <c r="F239" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='VI' /&gt;</v>
+      <c r="E239" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A239&amp;"' /&gt;"</f>
+      </c>
+      <c r="F239" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A239&amp;"' /&gt;"</f>
       </c>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C240" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>VN</v>
+      <c r="C240" s="4">
+        <f>IF(ISNA(VLOOKUP(A240, D:D, 1, FALSE)), "null",A240)</f>
       </c>
       <c r="D240" s="1"/>
-      <c r="E240" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='VN' /&gt;</v>
-      </c>
-      <c r="F240" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='VN' /&gt;</v>
+      <c r="E240" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A240&amp;"' /&gt;"</f>
+      </c>
+      <c r="F240" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A240&amp;"' /&gt;"</f>
       </c>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="3" t="s">
         <v>487</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C241" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C241" s="4">
+        <f>IF(ISNA(VLOOKUP(A241, D:D, 1, FALSE)), "null",A241)</f>
       </c>
       <c r="D241" s="1"/>
-      <c r="E241" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='VU' /&gt;</v>
-      </c>
-      <c r="F241" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='VU' /&gt;</v>
+      <c r="E241" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A241&amp;"' /&gt;"</f>
+      </c>
+      <c r="F241" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A241&amp;"' /&gt;"</f>
       </c>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="3" t="s">
         <v>489</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C242" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C242" s="4">
+        <f>IF(ISNA(VLOOKUP(A242, D:D, 1, FALSE)), "null",A242)</f>
       </c>
       <c r="D242" s="1"/>
-      <c r="E242" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='WF' /&gt;</v>
-      </c>
-      <c r="F242" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='WF' /&gt;</v>
+      <c r="E242" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A242&amp;"' /&gt;"</f>
+      </c>
+      <c r="F242" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A242&amp;"' /&gt;"</f>
       </c>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="3" t="s">
         <v>491</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C243" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C243" s="4">
+        <f>IF(ISNA(VLOOKUP(A243, D:D, 1, FALSE)), "null",A243)</f>
       </c>
       <c r="D243" s="1"/>
-      <c r="E243" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='WS' /&gt;</v>
-      </c>
-      <c r="F243" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='WS' /&gt;</v>
+      <c r="E243" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A243&amp;"' /&gt;"</f>
+      </c>
+      <c r="F243" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A243&amp;"' /&gt;"</f>
       </c>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="3" t="s">
         <v>493</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C244" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C244" s="4">
+        <f>IF(ISNA(VLOOKUP(A244, D:D, 1, FALSE)), "null",A244)</f>
       </c>
       <c r="D244" s="1"/>
-      <c r="E244" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='XK' /&gt;</v>
-      </c>
-      <c r="F244" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='XK' /&gt;</v>
+      <c r="E244" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A244&amp;"' /&gt;"</f>
+      </c>
+      <c r="F244" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A244&amp;"' /&gt;"</f>
       </c>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="3" t="s">
         <v>495</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C245" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C245" s="4">
+        <f>IF(ISNA(VLOOKUP(A245, D:D, 1, FALSE)), "null",A245)</f>
       </c>
       <c r="D245" s="1"/>
-      <c r="E245" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='YE' /&gt;</v>
-      </c>
-      <c r="F245" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='YE' /&gt;</v>
+      <c r="E245" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A245&amp;"' /&gt;"</f>
+      </c>
+      <c r="F245" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A245&amp;"' /&gt;"</f>
       </c>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="3" t="s">
         <v>497</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C246" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C246" s="4">
+        <f>IF(ISNA(VLOOKUP(A246, D:D, 1, FALSE)), "null",A246)</f>
       </c>
       <c r="D246" s="1"/>
-      <c r="E246" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='YT' /&gt;</v>
-      </c>
-      <c r="F246" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='YT' /&gt;</v>
+      <c r="E246" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A246&amp;"' /&gt;"</f>
+      </c>
+      <c r="F246" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A246&amp;"' /&gt;"</f>
       </c>
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C247" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>ZA</v>
+      <c r="C247" s="4">
+        <f>IF(ISNA(VLOOKUP(A247, D:D, 1, FALSE)), "null",A247)</f>
       </c>
       <c r="D247" s="1"/>
-      <c r="E247" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='ZA' /&gt;</v>
-      </c>
-      <c r="F247" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='ZA' /&gt;</v>
+      <c r="E247" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A247&amp;"' /&gt;"</f>
+      </c>
+      <c r="F247" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A247&amp;"' /&gt;"</f>
       </c>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="3" t="s">
         <v>500</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C248" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C248" s="4">
+        <f>IF(ISNA(VLOOKUP(A248, D:D, 1, FALSE)), "null",A248)</f>
       </c>
       <c r="D248" s="1"/>
-      <c r="E248" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='ZM' /&gt;</v>
-      </c>
-      <c r="F248" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='ZM' /&gt;</v>
+      <c r="E248" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A248&amp;"' /&gt;"</f>
+      </c>
+      <c r="F248" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A248&amp;"' /&gt;"</f>
       </c>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="1:7" ht="18">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="3" t="s">
         <v>502</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C249" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>null</v>
+      <c r="C249" s="4">
+        <f>IF(ISNA(VLOOKUP(A249, D:D, 1, FALSE)), "null",A249)</f>
       </c>
       <c r="D249" s="1"/>
-      <c r="E249" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">    &lt;Match status='yes' country='ZW' /&gt;</v>
-      </c>
-      <c r="F249" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    &lt;Match status='never' country='ZW' /&gt;</v>
+      <c r="E249" s="4">
+        <f>"    &lt;Match status='yes' country='"&amp;A249&amp;"' /&gt;"</f>
+      </c>
+      <c r="F249" s="4">
+        <f>"    &lt;Match status='never' country='"&amp;A249&amp;"' /&gt;"</f>
       </c>
       <c r="G249" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>